--- a/data/Workstation1.xlsx
+++ b/data/Workstation1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Desktop\SYSC 4005 Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02558D9-86E7-4DBD-B452-17EF827BE129}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE916BD-76FA-4FB2-9F5D-23F9250DEF82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="3960" windowWidth="26355" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26355" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,19 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'3'!$A$1:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -121,10 +130,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,6 +198,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC99029E-4F47-495E-9238-1978E0AD494D}" name="_3" displayName="_3" ref="A1:B25" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B25" xr:uid="{12365960-F163-4581-A0EC-9CF4DB7CA1B1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F59B2370-2B8B-4EDD-B1A4-850DA2E4F1DB}" uniqueName="1" name="Name" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{EBBBA39B-1B55-4B68-8D4F-9D3C8149F0E5}" uniqueName="2" name="Value" queryTableFieldId="2"/>
@@ -454,9 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9553470-AA72-40EB-927E-D90B87604027}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -464,87 +484,91 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <f>SUM(B2:B18)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B6">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B7">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>29.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>1.7275294117647058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -552,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -560,44 +584,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>4.6044166666666664</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,66 +629,67 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1.7275294117647058</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>29.375</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.6044166666666664</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/Workstation1.xlsx
+++ b/data/Workstation1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamna\IdeaProjects\SYSC4005-Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/hamnanimramanzoor_cmail_carleton_ca/Documents/2020-2021/Winter 2021/SYSC 4005/Project/SYSC-4005-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462C5B62-D12D-4476-A2C5-EBFA1BE66E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{462C5B62-D12D-4476-A2C5-EBFA1BE66E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{840A89B5-FA50-4FB5-B986-F38581020B04}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WS1" sheetId="2" r:id="rId1"/>
@@ -1308,904 +1308,904 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>-1.7248813311697701E-2</c:v>
+                  <c:v>-7.6676398513409313E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7277585323881073E-2</c:v>
+                  <c:v>7.6804299154012148E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1919457079507597E-2</c:v>
+                  <c:v>2.3079831114691036E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6677576944740389E-2</c:v>
+                  <c:v>3.8530908253754374E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1215527277373447</c:v>
+                  <c:v>5.4034009319701128E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15654570020907618</c:v>
+                  <c:v>6.9589485826549349E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19165729315326799</c:v>
+                  <c:v>8.519769286305115E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22688831351423677</c:v>
+                  <c:v>0.10085898914132711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26223957649855617</c:v>
+                  <c:v>0.1165737370463308</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29771190568824601</c:v>
+                  <c:v>0.13234230268616493</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3333061331558943</c:v>
+                  <c:v>0.14816505594325677</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36902309958177187</c:v>
+                  <c:v>0.16404237052641923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40486365437296506</c:v>
+                  <c:v>0.17997462402380915</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44082865578459013</c:v>
+                  <c:v>0.19596219795681077</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47691897104310699</c:v>
+                  <c:v>0.21200547783485268</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.51313547647178992</c:v>
+                  <c:v>0.22810485321118357</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.54947905761841009</c:v>
+                  <c:v>0.24426071773963093</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58595060938515475</c:v>
+                  <c:v>0.26047346923235443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.62255103616084273</c:v>
+                  <c:v>0.27674350971861955</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.65928125195549403</c:v>
+                  <c:v>0.29307124550461844</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.69614218053728261</c:v>
+                  <c:v>0.30945708723434934</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.73313475557194174</c:v>
+                  <c:v>0.32590144995158687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7702599207646601</c:v>
+                  <c:v>0.34240475316295921</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8075186300045426</c:v>
+                  <c:v>0.35896742090216549</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.84491184751166815</c:v>
+                  <c:v>0.37558988179534769</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.88244054798681015</c:v>
+                  <c:v>0.39227256912764591</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.92010571676389186</c:v>
+                  <c:v>0.40901592091096978</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95790834996521179</c:v>
+                  <c:v>0.42582037995300082</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99584945465951236</c:v>
+                  <c:v>0.44268639392745923</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0339300490229653</c:v>
+                  <c:v>0.45961441544566656</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0721511625031157</c:v>
+                  <c:v>0.47660490212942452</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1105138359858642</c:v>
+                  <c:v>0.49365831668524301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1490191219655599</c:v>
+                  <c:v>0.51077512697995275</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1876680847182601</c:v>
+                  <c:v>0.52795580611772408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2264618004782322</c:v>
+                  <c:v>0.54520083251852736</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2654013576177841</c:v>
+                  <c:v>0.56251068999807408</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3044878568304765</c:v>
+                  <c:v>0.57988586784925966</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3437224113178128</c:v>
+                  <c:v>0.59732686092515364</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3831061469794692</c:v>
+                  <c:v>0.61483416972356231</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4226402026071687</c:v>
+                  <c:v>0.63240830047321228</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4623257300822572</c:v>
+                  <c:v>0.65004976522157909</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5021638945770852</c:v>
+                  <c:v>0.66775908192440758</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5421558747602713</c:v>
+                  <c:v>0.68553677453695827</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.5823028630059546</c:v>
+                  <c:v>0.70338337310702648</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.6226060656071093</c:v>
+                  <c:v>0.72129941386976715</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.6630667029930222</c:v>
+                  <c:v>0.73928543934437108</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7036860099510491</c:v>
+                  <c:v>0.75734199843264149</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7444652358527231</c:v>
+                  <c:v>0.77546964651950778</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7854056448843323</c:v>
+                  <c:v>0.79366894557552303</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8265085162820847</c:v>
+                  <c:v>0.81194046426140354</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8677751445719433</c:v>
+                  <c:v>0.83028477803464185</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9092068398142619</c:v>
+                  <c:v>0.8487024692582561</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.9508049278533426</c:v>
+                  <c:v>0.8671941273117254</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.9925707505720125</c:v>
+                  <c:v>0.88576034870415776</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0345056661513548</c:v>
+                  <c:v>0.90440173718974826</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0766110493357317</c:v>
+                  <c:v>0.92311890388559059</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.1188882917032035</c:v>
+                  <c:v>0.94191246739188617</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.1613388019414872</c:v>
+                  <c:v>0.96078305391461682</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.203964006129608</c:v>
+                  <c:v>0.97973129739074793</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.2467653480253564</c:v>
+                  <c:v>0.99875783961601172</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.2897442893587105</c:v>
+                  <c:v>1.0178633303753428</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.3329023101313817</c:v>
+                  <c:v>1.0370484275760361</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.3762409089226155</c:v>
+                  <c:v>1.0563137973836845</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.4197616032014246</c:v>
+                  <c:v>1.0756601143609756</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.4634659296453973</c:v>
+                  <c:v>1.0950880616094134</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.5073554444662807</c:v>
+                  <c:v>1.1145983309140501</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.5514317237424722</c:v>
+                  <c:v>1.1341916228912881</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5956963637586266</c:v>
+                  <c:v>1.1538686471398458</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.6401509813525408</c:v>
+                  <c:v>1.1736301223949612</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.6847972142695293</c:v>
+                  <c:v>1.19347677668592</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.7296367215244595</c:v>
+                  <c:v>1.2134093474969929</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.7746711837716531</c:v>
+                  <c:v>1.2334285819318693</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.8199023036828823</c:v>
+                  <c:v>1.2535352368816866</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.8653318063336366</c:v>
+                  <c:v>1.2737300791967394</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.910961439597902</c:v>
+                  <c:v>1.2940138858619714</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.956792974551687</c:v>
+                  <c:v>1.3143874441763537</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.002828205885502</c:v>
+                  <c:v>1.3348515519362467</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.0490689523260444</c:v>
+                  <c:v>1.3554070176228514</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.0955170570673531</c:v>
+                  <c:v>1.3760546605938717</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.1421743882116648</c:v>
+                  <c:v>1.3967953112794882</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.1890428392202343</c:v>
+                  <c:v>1.4176298113827628</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.2361243293744262</c:v>
+                  <c:v>1.4385590140846074</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.2834208042473119</c:v>
+                  <c:v>1.4595837842534247</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.3309342361860836</c:v>
+                  <c:v>1.4807049986595562</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.3786666248056054</c:v>
+                  <c:v>1.5019235461946803</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.4266199974933658</c:v>
+                  <c:v>1.5232403280962803</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.4747964099261774</c:v>
+                  <c:v>1.544656258177334</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.5231979465989718</c:v>
+                  <c:v>1.5661722630613784</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.5718267213659693</c:v>
+                  <c:v>1.5877892824230782</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.6206848779946408</c:v>
+                  <c:v>1.6095082692344778</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.6697745907327994</c:v>
+                  <c:v>1.6313301900170929</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.7190980648891667</c:v>
+                  <c:v>1.6532560250999888</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.7686575374278504</c:v>
+                  <c:v>1.675286768884046</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.8184552775771228</c:v>
+                  <c:v>1.6974234301125801</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.8684935874528636</c:v>
+                  <c:v>1.7196670321484826</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.9187748026971807</c:v>
+                  <c:v>1.7420186132581066</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.9693012931325784</c:v>
+                  <c:v>1.7644792269020675</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.0200754634321658</c:v>
+                  <c:v>1.7870499420331694</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.0710997538063811</c:v>
+                  <c:v>1.8097318434016769</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.1223766407067082</c:v>
+                  <c:v>1.8325260318681384</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.173908637546889</c:v>
+                  <c:v>1.8554336247239891</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.2256982954421884</c:v>
+                  <c:v>1.8784557560201756</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.277748203967219</c:v>
+                  <c:v>1.9015935769040337</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.3300609919328963</c:v>
+                  <c:v>1.9248482559646707</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.3826393281831342</c:v>
+                  <c:v>1.9482209795871199</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.4354859224118561</c:v>
+                  <c:v>1.971712952315527</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.4886035260009338</c:v>
+                  <c:v>1.9953253972256435</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.5419949328797671</c:v>
+                  <c:v>2.0190595563069333</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.5956629804070923</c:v>
+                  <c:v>2.0429166908545664</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.6496105502757707</c:v>
+                  <c:v>2.0668980818716252</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.7038405694412679</c:v>
+                  <c:v>2.0910050304818437</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.7583560110745609</c:v>
+                  <c:v>2.1152388583532029</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.8131598955402488</c:v>
+                  <c:v>2.1396009081327323</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.8682552914006969</c:v>
+                  <c:v>2.1640925438928855</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4.9236453164470024</c:v>
+                  <c:v>2.1887151515898333</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.9793331387576956</c:v>
+                  <c:v>2.2134701395340928</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5.0353219777860581</c:v>
+                  <c:v>2.2383589388738736</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5.0916151054769605</c:v>
+                  <c:v>2.2633830040915468</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5.1482158474142494</c:v>
+                  <c:v>2.2885438135136935</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.2051275839996345</c:v>
+                  <c:v>2.3138428698351614</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5.2623537516641443</c:v>
+                  <c:v>2.3392817006575886</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5.3198978441132452</c:v>
+                  <c:v>2.3648618590429047</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5.3777634136067345</c:v>
+                  <c:v>2.3905849240822783</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5.4359540722745709</c:v>
+                  <c:v>2.4164525014810487</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5.4944734934699104</c:v>
+                  <c:v>2.4424662241601904</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5.5533254131605503</c:v>
+                  <c:v>2.4686277528748546</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5.612513631360132</c:v>
+                  <c:v>2.4949387768505855</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.6720420136005023</c:v>
+                  <c:v>2.5214010144378265</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.7319144924465837</c:v>
+                  <c:v>2.5480162137853348</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5.7921350690553144</c:v>
+                  <c:v>2.5747861535331715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>5.8527078147801621</c:v>
+                  <c:v>2.6017126435259645</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5.9136368728228357</c:v>
+                  <c:v>2.6287975255471432</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5.9749264599338439</c:v>
+                  <c:v>2.6560426740748908</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6.0365808681636999</c:v>
+                  <c:v>2.6834499970606109</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.0986044666665364</c:v>
+                  <c:v>2.7110214367306895</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.16100170355804</c:v>
+                  <c:v>2.7387589704124058</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6.2237771078297213</c:v>
+                  <c:v>2.7666646113848863</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.2869352913215062</c:v>
+                  <c:v>2.7947404097559829</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.3504809507548625</c:v>
+                  <c:v>2.8229884533660621</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.4144188698286895</c:v>
+                  <c:v>2.8514108687196913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>6.4787539213802541</c:v>
+                  <c:v>2.8800098219462478</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6.5434910696137045</c:v>
+                  <c:v>2.9087875197905593</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6.608635372398652</c:v>
+                  <c:v>2.9377462106346957</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6.6741919836414612</c:v>
+                  <c:v>2.9668881855520857</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6.7401661557321155</c:v>
+                  <c:v>2.9962157793952202</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6.8065632420694646</c:v>
+                  <c:v>3.0257313719182095</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>6.8733886996679479</c:v>
+                  <c:v>3.0554373889355504</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>6.9406480918489688</c:v>
+                  <c:v>3.0853363035185271</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>7.0083470910202008</c:v>
+                  <c:v>3.1154306372307019</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>7.0764914815463245</c:v>
+                  <c:v>3.1457229614040463</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>7.1450871627148471</c:v>
+                  <c:v>3.1762158984573414</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>7.2141401518007511</c:v>
+                  <c:v>3.2069121232585118</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>7.2836565872340042</c:v>
+                  <c:v>3.2378143645326807</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>7.3536427318740909</c:v>
+                  <c:v>3.268925406317805</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>7.4241049763959044</c:v>
+                  <c:v>3.3002480894698101</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>7.4950498427916017</c:v>
+                  <c:v>3.3317853132192718</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>7.5664839879932329</c:v>
+                  <c:v>3.3635400367817931</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>7.6384142076211363</c:v>
+                  <c:v>3.3955152810242817</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>7.710847439863417</c:v>
+                  <c:v>3.4277141301894991</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>7.7837907694920077</c:v>
+                  <c:v>3.4601397336813271</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>7.857251432021175</c:v>
+                  <c:v>3.4927953079133558</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7.9312368180145345</c:v>
+                  <c:v>3.5256841382234851</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>8.0057544775469793</c:v>
+                  <c:v>3.5588095808573934</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>8.0808121248283182</c:v>
+                  <c:v>3.5921750650238886</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>8.1564176429956294</c:v>
+                  <c:v>3.6257840950252627</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>8.2325790890818134</c:v>
+                  <c:v>3.6596402524659686</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>8.3093046991681891</c:v>
+                  <c:v>3.6937471985431096</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>8.3866028937293482</c:v>
+                  <c:v>3.7281086764223961</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>8.4644822831789241</c:v>
+                  <c:v>3.7627285137034163</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>8.5429516736254865</c:v>
+                  <c:v>3.7976106249783088</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>8.6220200728480751</c:v>
+                  <c:v>3.832759014488079</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>8.7016966965016156</c:v>
+                  <c:v>3.8681777788810976</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>8.7819909745628291</c:v>
+                  <c:v>3.9038711100785126</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>8.8629125580279595</c:v>
+                  <c:v>3.9398432982516005</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>8.9444713258742059</c:v>
+                  <c:v>3.9760987349163384</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>9.0266773922973798</c:v>
+                  <c:v>4.0126419161507734</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>9.1095411142391143</c:v>
+                  <c:v>4.0494774459411031</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>9.1930730992175853</c:v>
+                  <c:v>4.0866100396626761</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>9.2772842134765412</c:v>
+                  <c:v>4.1240445277024937</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>9.3621855904683748</c:v>
+                  <c:v>4.1617858592302008</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>9.4477886396876869</c:v>
+                  <c:v>4.1998391061248821</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>9.5341050558729616</c:v>
+                  <c:v>4.2382094670654977</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>9.6211468285948882</c:v>
+                  <c:v>4.2769022717931939</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>9.7089262522509472</c:v>
+                  <c:v>4.3159229855542094</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>9.7974559364871698</c:v>
+                  <c:v>4.3552772137326734</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>9.8867488170690851</c:v>
+                  <c:v>4.3949707066830896</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>9.97681816722538</c:v>
+                  <c:v>4.4350093647729434</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>10.067677609489081</c:v>
+                  <c:v>4.4753992436464829</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>10.159341128062689</c:v>
+                  <c:v>4.5161465597214088</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>10.251823081735395</c:v>
+                  <c:v>4.5572576959309821</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>10.345138217382129</c:v>
+                  <c:v>4.598739207724778</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>10.439301684076243</c:v>
+                  <c:v>4.6405978293422177</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>10.534329047849614</c:v>
+                  <c:v>4.6828404803738932</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>10.630236307136077</c:v>
+                  <c:v>4.7254742726266654</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>10.727039908936565</c:v>
+                  <c:v>4.7685065173095724</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>10.824756765746791</c:v>
+                  <c:v>4.811944732558719</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>10.923404273291037</c:v>
+                  <c:v>4.8557966513205013</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>11.023000329108577</c:v>
+                  <c:v>4.9000702296138581</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>11.123563352042364</c:v>
+                  <c:v>4.9447736551936048</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>11.225112302683154</c:v>
+                  <c:v>4.9899153566384875</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>11.327666704825695</c:v>
+                  <c:v>5.0355040128891355</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>11.431246667997808</c:v>
+                  <c:v>5.0815485632629462</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>11.535872911127376</c:v>
+                  <c:v>5.1280582179748038</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>11.641566787416858</c:v>
+                  <c:v>5.1750424691945867</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>11.748350310500074</c:v>
+                  <c:v>5.2225111026746749</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>11.856246181961406</c:v>
+                  <c:v>5.2704742099831074</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>11.965277820303458</c:v>
+                  <c:v>5.3189422013806098</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>12.075469391455583</c:v>
+                  <c:v>5.3679258193826049</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>12.186845840922842</c:v>
+                  <c:v>5.4174361530504207</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>12.29943292768219</c:v>
+                  <c:v>5.4674846530592243</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>12.413257259941266</c:v>
+                  <c:v>5.5180831475939218</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>12.52834633288386</c:v>
+                  <c:v>5.5692438591282079</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>12.644728568536083</c:v>
+                  <c:v>5.6209794221463287</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>12.762433357897772</c:v>
+                  <c:v>5.6733029018718186</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>12.881491105495385</c:v>
+                  <c:v>5.7262278140726623</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>13.00193327652541</c:v>
+                  <c:v>5.7797681460180224</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>13.123792446771025</c:v>
+                  <c:v>5.8339383786677637</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>13.247102355490243</c:v>
+                  <c:v>5.8887535101828972</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>13.37189796149031</c:v>
+                  <c:v>5.9442290808524119</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>13.498215502621505</c:v>
+                  <c:v>6.0003811995401417</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>13.626092558943656</c:v>
+                  <c:v>6.0572265717642662</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>13.755568119840916</c:v>
+                  <c:v>6.11478252953194</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>13.886682655384581</c:v>
+                  <c:v>6.1730670630623052</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>14.019478192270842</c:v>
+                  <c:v>6.2320988545432163</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>14.153998394689953</c:v>
+                  <c:v>6.2918973140801242</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>14.290288650516199</c:v>
+                  <c:v>6.3524826180102254</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>14.428396163244345</c:v>
+                  <c:v>6.4138757497711065</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>14.568370050138535</c:v>
+                  <c:v>6.4760985435310179</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>14.710261447104383</c:v>
+                  <c:v>6.5391737308078106</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>14.854123620844481</c:v>
+                  <c:v>6.6031249903255906</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>15.000012088912943</c:v>
+                  <c:v>6.6679770013827335</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>15.147984748346152</c:v>
+                  <c:v>6.7337555010323014</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>15.29810201361548</c:v>
+                  <c:v>6.8004873454063608</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>15.450426964724683</c:v>
+                  <c:v>6.868200575549932</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>15.605025506360489</c:v>
+                  <c:v>6.9369244881684304</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>15.761966539101435</c:v>
+                  <c:v>7.0066897117353744</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>15.921322143798069</c:v>
+                  <c:v>7.0775282884551887</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>16.083167780359567</c:v>
+                  <c:v>7.149473762630099</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>16.247582502318995</c:v>
+                  <c:v>7.2225612760411391</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>16.41464918870436</c:v>
+                  <c:v>7.2968276710221298</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>16.584454794917935</c:v>
+                  <c:v>7.3723116019834167</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>16.757090624525034</c:v>
+                  <c:v>7.4490536562305332</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>16.932652624078852</c:v>
+                  <c:v>7.5270964850231099</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>17.111241703364886</c:v>
+                  <c:v>7.6064849459335901</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>17.292964083741136</c:v>
+                  <c:v>7.6872662576953976</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>17.477931677584834</c:v>
+                  <c:v>7.7694901688789431</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>17.666262502239807</c:v>
+                  <c:v>7.8532091419042382</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>17.858081132298551</c:v>
+                  <c:v>7.9384785540945018</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>18.053519194559762</c:v>
+                  <c:v>8.0253569177003392</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>18.25271591058625</c:v>
+                  <c:v>8.1139061210838062</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>18.455818692464625</c:v>
+                  <c:v>8.2041916935523016</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>18.662983798152304</c:v>
+                  <c:v>8.296283096680936</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>18.874377053709903</c:v>
+                  <c:v>8.3902540453675272</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>19.090174650781719</c:v>
+                  <c:v>8.4861828623377544</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>19.310564028932831</c:v>
+                  <c:v>8.5841528703717387</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>19.535744853913933</c:v>
+                  <c:v>8.6842528271735198</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>19.765930104647648</c:v>
+                  <c:v>8.7865774085706505</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>20.001347283766375</c:v>
+                  <c:v>8.8912277466363339</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>20.242239768946259</c:v>
+                  <c:v>8.9983120303998554</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>20.488868325157419</c:v>
+                  <c:v>9.1079461780893602</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>20.741512801386676</c:v>
+                  <c:v>9.2202545913784562</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>21.000474039513183</c:v>
+                  <c:v>9.3353710039414466</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>21.266076027987385</c:v>
+                  <c:v>9.4534394388313459</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>21.538668338980987</c:v>
+                  <c:v>9.5746152918696623</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>21.818628894994539</c:v>
+                  <c:v>9.6990665614904721</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>22.106367119854866</c:v>
+                  <c:v>9.8269752494578295</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>22.402327540026878</c:v>
+                  <c:v>9.9585389617621125</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>22.706993915743993</c:v>
+                  <c:v>10.093972745037389</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>23.020893998335161</c:v>
+                  <c:v>10.233511201342843</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>23.344605031221757</c:v>
+                  <c:v>10.377410933528864</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>23.678760138600492</c:v>
+                  <c:v>10.52595338520748</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>24.024055779454383</c:v>
+                  <c:v>10.679448154294583</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>24.381260487443711</c:v>
+                  <c:v>10.838236878166279</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>24.751225172408613</c:v>
+                  <c:v>11.002697813000669</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>25.13489533075921</c:v>
+                  <c:v>11.173251261680193</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>25.533325605608258</c:v>
+                  <c:v>11.350366046228382</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>25.947697261056835</c:v>
+                  <c:v>11.534567275679274</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>26.379339299831241</c:v>
+                  <c:v>11.726445733530987</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>26.829754175642989</c:v>
+                  <c:v>11.926669307698189</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>27.30064935471637</c:v>
+                  <c:v>12.135997020603444</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>27.793976399622657</c:v>
+                  <c:v>12.355296403170383</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>28.31197983499716</c:v>
+                  <c:v>12.585565217171368</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>28.857258888503143</c:v>
+                  <c:v>12.827958901027202</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>29.43284640547806</c:v>
+                  <c:v>13.083825649848594</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>30.042311009070595</c:v>
+                  <c:v>13.354751828829187</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>30.689891239851139</c:v>
+                  <c:v>13.642621602519997</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>31.380674494684676</c:v>
+                  <c:v>13.949696478784588</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>32.120840012304967</c:v>
+                  <c:v>14.278723323526707</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>32.917995549899302</c:v>
+                  <c:v>14.633084024017924</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>33.781654750945179</c:v>
+                  <c:v>15.017007693910369</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>34.723932242140044</c:v>
+                  <c:v>15.435879665677115</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>35.760587698362023</c:v>
+                  <c:v>15.896705610314539</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>36.91265281652656</c:v>
+                  <c:v>16.408834778376637</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>38.209081386561273</c:v>
+                  <c:v>16.985138039846436</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>39.69130704591548</c:v>
+                  <c:v>17.644033949319631</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>41.421638219988921</c:v>
+                  <c:v>18.41322056097745</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>43.500167223223272</c:v>
+                  <c:v>19.337192055674961</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>46.103259453058314</c:v>
+                  <c:v>20.494348397825359</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>49.588408597479621</c:v>
+                  <c:v>22.043606771994714</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>54.879494434141563</c:v>
+                  <c:v>24.395660787823214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4431,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF1D3A3-F7AA-4627-8E32-030C402B5B0D}">
   <dimension ref="A1:J327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5225,8 +5225,8 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <f>(-LN(-((B28-0.5)/300)+1))*10.35791</f>
-        <v>-1.7248813311697701E-2</v>
+        <f>(-LN(-((B28-0.5)/300)+1))*$B$23</f>
+        <v>-7.6676398513409313E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -5237,8 +5237,8 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D92" si="8">(-LN(-((B29-0.5)/300)+1))*10.35791</f>
-        <v>1.7277585323881073E-2</v>
+        <f t="shared" ref="D29:D92" si="8">(-LN(-((B29-0.5)/300)+1))*$B$23</f>
+        <v>7.6804299154012148E-3</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="8"/>
-        <v>5.1919457079507597E-2</v>
+        <v>2.3079831114691036E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="8"/>
-        <v>8.6677576944740389E-2</v>
+        <v>3.8530908253754374E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="8"/>
-        <v>0.1215527277373447</v>
+        <v>5.4034009319701128E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="8"/>
-        <v>0.15654570020907618</v>
+        <v>6.9589485826549349E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="8"/>
-        <v>0.19165729315326799</v>
+        <v>8.519769286305115E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="8"/>
-        <v>0.22688831351423677</v>
+        <v>0.10085898914132711</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="8"/>
-        <v>0.26223957649855617</v>
+        <v>0.1165737370463308</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="8"/>
-        <v>0.29771190568824601</v>
+        <v>0.13234230268616493</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="8"/>
-        <v>0.3333061331558943</v>
+        <v>0.14816505594325677</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="8"/>
-        <v>0.36902309958177187</v>
+        <v>0.16404237052641923</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="8"/>
-        <v>0.40486365437296506</v>
+        <v>0.17997462402380915</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="8"/>
-        <v>0.44082865578459013</v>
+        <v>0.19596219795681077</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="8"/>
-        <v>0.47691897104310699</v>
+        <v>0.21200547783485268</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="8"/>
-        <v>0.51313547647178992</v>
+        <v>0.22810485321118357</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="8"/>
-        <v>0.54947905761841009</v>
+        <v>0.24426071773963093</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="8"/>
-        <v>0.58595060938515475</v>
+        <v>0.26047346923235443</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="8"/>
-        <v>0.62255103616084273</v>
+        <v>0.27674350971861955</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="8"/>
-        <v>0.65928125195549403</v>
+        <v>0.29307124550461844</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="8"/>
-        <v>0.69614218053728261</v>
+        <v>0.30945708723434934</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="8"/>
-        <v>0.73313475557194174</v>
+        <v>0.32590144995158687</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="8"/>
-        <v>0.7702599207646601</v>
+        <v>0.34240475316295921</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="8"/>
-        <v>0.8075186300045426</v>
+        <v>0.35896742090216549</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="8"/>
-        <v>0.84491184751166815</v>
+        <v>0.37558988179534769</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="8"/>
-        <v>0.88244054798681015</v>
+        <v>0.39227256912764591</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="8"/>
-        <v>0.92010571676389186</v>
+        <v>0.40901592091096978</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="8"/>
-        <v>0.95790834996521179</v>
+        <v>0.42582037995300082</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="8"/>
-        <v>0.99584945465951236</v>
+        <v>0.44268639392745923</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="8"/>
-        <v>1.0339300490229653</v>
+        <v>0.45961441544566656</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="8"/>
-        <v>1.0721511625031157</v>
+        <v>0.47660490212942452</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="8"/>
-        <v>1.1105138359858642</v>
+        <v>0.49365831668524301</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="8"/>
-        <v>1.1490191219655599</v>
+        <v>0.51077512697995275</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="8"/>
-        <v>1.1876680847182601</v>
+        <v>0.52795580611772408</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="8"/>
-        <v>1.2264618004782322</v>
+        <v>0.54520083251852736</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="8"/>
-        <v>1.2654013576177841</v>
+        <v>0.56251068999807408</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="8"/>
-        <v>1.3044878568304765</v>
+        <v>0.57988586784925966</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="8"/>
-        <v>1.3437224113178128</v>
+        <v>0.59732686092515364</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="8"/>
-        <v>1.3831061469794692</v>
+        <v>0.61483416972356231</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="8"/>
-        <v>1.4226402026071687</v>
+        <v>0.63240830047321228</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="8"/>
-        <v>1.4623257300822572</v>
+        <v>0.65004976522157909</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="8"/>
-        <v>1.5021638945770852</v>
+        <v>0.66775908192440758</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="8"/>
-        <v>1.5421558747602713</v>
+        <v>0.68553677453695827</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="8"/>
-        <v>1.5823028630059546</v>
+        <v>0.70338337310702648</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="8"/>
-        <v>1.6226060656071093</v>
+        <v>0.72129941386976715</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="8"/>
-        <v>1.6630667029930222</v>
+        <v>0.73928543934437108</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="8"/>
-        <v>1.7036860099510491</v>
+        <v>0.75734199843264149</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="8"/>
-        <v>1.7444652358527231</v>
+        <v>0.77546964651950778</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>1.7854056448843323</v>
+        <v>0.79366894557552303</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="8"/>
-        <v>1.8265085162820847</v>
+        <v>0.81194046426140354</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="8"/>
-        <v>1.8677751445719433</v>
+        <v>0.83028477803464185</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="8"/>
-        <v>1.9092068398142619</v>
+        <v>0.8487024692582561</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="8"/>
-        <v>1.9508049278533426</v>
+        <v>0.8671941273117254</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="8"/>
-        <v>1.9925707505720125</v>
+        <v>0.88576034870415776</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="8"/>
-        <v>2.0345056661513548</v>
+        <v>0.90440173718974826</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="8"/>
-        <v>2.0766110493357317</v>
+        <v>0.92311890388559059</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="8"/>
-        <v>2.1188882917032035</v>
+        <v>0.94191246739188617</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="8"/>
-        <v>2.1613388019414872</v>
+        <v>0.96078305391461682</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="8"/>
-        <v>2.203964006129608</v>
+        <v>0.97973129739074793</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="8"/>
-        <v>2.2467653480253564</v>
+        <v>0.99875783961601172</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="8"/>
-        <v>2.2897442893587105</v>
+        <v>1.0178633303753428</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="8"/>
-        <v>2.3329023101313817</v>
+        <v>1.0370484275760361</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="8"/>
-        <v>2.3762409089226155</v>
+        <v>1.0563137973836845</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="8"/>
-        <v>2.4197616032014246</v>
+        <v>1.0756601143609756</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="8"/>
-        <v>2.4634659296453973</v>
+        <v>1.0950880616094134</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -6005,8 +6005,8 @@
         <v>65</v>
       </c>
       <c r="D93">
-        <f t="shared" ref="D93:D156" si="9">(-LN(-((B93-0.5)/300)+1))*10.35791</f>
-        <v>2.5073554444662807</v>
+        <f t="shared" ref="D93:D156" si="9">(-LN(-((B93-0.5)/300)+1))*$B$23</f>
+        <v>1.1145983309140501</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="9"/>
-        <v>2.5514317237424722</v>
+        <v>1.1341916228912881</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="D95">
         <f t="shared" si="9"/>
-        <v>2.5956963637586266</v>
+        <v>1.1538686471398458</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="9"/>
-        <v>2.6401509813525408</v>
+        <v>1.1736301223949612</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="9"/>
-        <v>2.6847972142695293</v>
+        <v>1.19347677668592</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="9"/>
-        <v>2.7296367215244595</v>
+        <v>1.2134093474969929</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="9"/>
-        <v>2.7746711837716531</v>
+        <v>1.2334285819318693</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="9"/>
-        <v>2.8199023036828823</v>
+        <v>1.2535352368816866</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="D101">
         <f t="shared" si="9"/>
-        <v>2.8653318063336366</v>
+        <v>1.2737300791967394</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="9"/>
-        <v>2.910961439597902</v>
+        <v>1.2940138858619714</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="9"/>
-        <v>2.956792974551687</v>
+        <v>1.3143874441763537</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="9"/>
-        <v>3.002828205885502</v>
+        <v>1.3348515519362467</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="9"/>
-        <v>3.0490689523260444</v>
+        <v>1.3554070176228514</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="9"/>
-        <v>3.0955170570673531</v>
+        <v>1.3760546605938717</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="9"/>
-        <v>3.1421743882116648</v>
+        <v>1.3967953112794882</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="9"/>
-        <v>3.1890428392202343</v>
+        <v>1.4176298113827628</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="9"/>
-        <v>3.2361243293744262</v>
+        <v>1.4385590140846074</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="9"/>
-        <v>3.2834208042473119</v>
+        <v>1.4595837842534247</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="9"/>
-        <v>3.3309342361860836</v>
+        <v>1.4807049986595562</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="D112">
         <f t="shared" si="9"/>
-        <v>3.3786666248056054</v>
+        <v>1.5019235461946803</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="9"/>
-        <v>3.4266199974933658</v>
+        <v>1.5232403280962803</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="9"/>
-        <v>3.4747964099261774</v>
+        <v>1.544656258177334</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="9"/>
-        <v>3.5231979465989718</v>
+        <v>1.5661722630613784</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="9"/>
-        <v>3.5718267213659693</v>
+        <v>1.5877892824230782</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="D117">
         <f t="shared" si="9"/>
-        <v>3.6206848779946408</v>
+        <v>1.6095082692344778</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="D118">
         <f t="shared" si="9"/>
-        <v>3.6697745907327994</v>
+        <v>1.6313301900170929</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="D119">
         <f t="shared" si="9"/>
-        <v>3.7190980648891667</v>
+        <v>1.6532560250999888</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="D120">
         <f t="shared" si="9"/>
-        <v>3.7686575374278504</v>
+        <v>1.675286768884046</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="9"/>
-        <v>3.8184552775771228</v>
+        <v>1.6974234301125801</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="D122">
         <f t="shared" si="9"/>
-        <v>3.8684935874528636</v>
+        <v>1.7196670321484826</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="9"/>
-        <v>3.9187748026971807</v>
+        <v>1.7420186132581066</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -6378,7 +6378,7 @@
       </c>
       <c r="D124">
         <f t="shared" si="9"/>
-        <v>3.9693012931325784</v>
+        <v>1.7644792269020675</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="D125">
         <f t="shared" si="9"/>
-        <v>4.0200754634321658</v>
+        <v>1.7870499420331694</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="9"/>
-        <v>4.0710997538063811</v>
+        <v>1.8097318434016769</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="D127">
         <f t="shared" si="9"/>
-        <v>4.1223766407067082</v>
+        <v>1.8325260318681384</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="D128">
         <f t="shared" si="9"/>
-        <v>4.173908637546889</v>
+        <v>1.8554336247239891</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="D129">
         <f t="shared" si="9"/>
-        <v>4.2256982954421884</v>
+        <v>1.8784557560201756</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="9"/>
-        <v>4.277748203967219</v>
+        <v>1.9015935769040337</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="D131">
         <f t="shared" si="9"/>
-        <v>4.3300609919328963</v>
+        <v>1.9248482559646707</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="D132">
         <f t="shared" si="9"/>
-        <v>4.3826393281831342</v>
+        <v>1.9482209795871199</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="D133">
         <f t="shared" si="9"/>
-        <v>4.4354859224118561</v>
+        <v>1.971712952315527</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="D134">
         <f t="shared" si="9"/>
-        <v>4.4886035260009338</v>
+        <v>1.9953253972256435</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="D135">
         <f t="shared" si="9"/>
-        <v>4.5419949328797671</v>
+        <v>2.0190595563069333</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="D136">
         <f t="shared" si="9"/>
-        <v>4.5956629804070923</v>
+        <v>2.0429166908545664</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="D137">
         <f t="shared" si="9"/>
-        <v>4.6496105502757707</v>
+        <v>2.0668980818716252</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="D138">
         <f t="shared" si="9"/>
-        <v>4.7038405694412679</v>
+        <v>2.0910050304818437</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="D139">
         <f t="shared" si="9"/>
-        <v>4.7583560110745609</v>
+        <v>2.1152388583532029</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="D140">
         <f t="shared" si="9"/>
-        <v>4.8131598955402488</v>
+        <v>2.1396009081327323</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="D141">
         <f t="shared" si="9"/>
-        <v>4.8682552914006969</v>
+        <v>2.1640925438928855</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="D142">
         <f t="shared" si="9"/>
-        <v>4.9236453164470024</v>
+        <v>2.1887151515898333</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="9"/>
-        <v>4.9793331387576956</v>
+        <v>2.2134701395340928</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="9"/>
-        <v>5.0353219777860581</v>
+        <v>2.2383589388738736</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="D145">
         <f t="shared" si="9"/>
-        <v>5.0916151054769605</v>
+        <v>2.2633830040915468</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="D146">
         <f t="shared" si="9"/>
-        <v>5.1482158474142494</v>
+        <v>2.2885438135136935</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="9"/>
-        <v>5.2051275839996345</v>
+        <v>2.3138428698351614</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="D148">
         <f t="shared" si="9"/>
-        <v>5.2623537516641443</v>
+        <v>2.3392817006575886</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="D149">
         <f t="shared" si="9"/>
-        <v>5.3198978441132452</v>
+        <v>2.3648618590429047</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -6690,7 +6690,7 @@
       </c>
       <c r="D150">
         <f t="shared" si="9"/>
-        <v>5.3777634136067345</v>
+        <v>2.3905849240822783</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="9"/>
-        <v>5.4359540722745709</v>
+        <v>2.4164525014810487</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="D152">
         <f t="shared" si="9"/>
-        <v>5.4944734934699104</v>
+        <v>2.4424662241601904</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="9"/>
-        <v>5.5533254131605503</v>
+        <v>2.4686277528748546</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="9"/>
-        <v>5.612513631360132</v>
+        <v>2.4949387768505855</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="D155">
         <f t="shared" si="9"/>
-        <v>5.6720420136005023</v>
+        <v>2.5214010144378265</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="D156">
         <f t="shared" si="9"/>
-        <v>5.7319144924465837</v>
+        <v>2.5480162137853348</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -6773,8 +6773,8 @@
         <v>129</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157:D220" si="10">(-LN(-((B157-0.5)/300)+1))*10.35791</f>
-        <v>5.7921350690553144</v>
+        <f t="shared" ref="D157:D220" si="10">(-LN(-((B157-0.5)/300)+1))*$B$23</f>
+        <v>2.5747861535331715</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="D158">
         <f t="shared" si="10"/>
-        <v>5.8527078147801621</v>
+        <v>2.6017126435259645</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="D159">
         <f t="shared" si="10"/>
-        <v>5.9136368728228357</v>
+        <v>2.6287975255471432</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="D160">
         <f t="shared" si="10"/>
-        <v>5.9749264599338439</v>
+        <v>2.6560426740748908</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="10"/>
-        <v>6.0365808681636999</v>
+        <v>2.6834499970606109</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="10"/>
-        <v>6.0986044666665364</v>
+        <v>2.7110214367306895</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="D163">
         <f t="shared" si="10"/>
-        <v>6.16100170355804</v>
+        <v>2.7387589704124058</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="D164">
         <f t="shared" si="10"/>
-        <v>6.2237771078297213</v>
+        <v>2.7666646113848863</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="D165">
         <f t="shared" si="10"/>
-        <v>6.2869352913215062</v>
+        <v>2.7947404097559829</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="D166">
         <f t="shared" si="10"/>
-        <v>6.3504809507548625</v>
+        <v>2.8229884533660621</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="D167">
         <f t="shared" si="10"/>
-        <v>6.4144188698286895</v>
+        <v>2.8514108687196913</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -6906,7 +6906,7 @@
       </c>
       <c r="D168">
         <f t="shared" si="10"/>
-        <v>6.4787539213802541</v>
+        <v>2.8800098219462478</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="10"/>
-        <v>6.5434910696137045</v>
+        <v>2.9087875197905593</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="10"/>
-        <v>6.608635372398652</v>
+        <v>2.9377462106346957</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="D171">
         <f t="shared" si="10"/>
-        <v>6.6741919836414612</v>
+        <v>2.9668881855520857</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="D172">
         <f t="shared" si="10"/>
-        <v>6.7401661557321155</v>
+        <v>2.9962157793952202</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="D173">
         <f t="shared" si="10"/>
-        <v>6.8065632420694646</v>
+        <v>3.0257313719182095</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="D174">
         <f t="shared" si="10"/>
-        <v>6.8733886996679479</v>
+        <v>3.0554373889355504</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="D175">
         <f t="shared" si="10"/>
-        <v>6.9406480918489688</v>
+        <v>3.0853363035185271</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="D176">
         <f t="shared" si="10"/>
-        <v>7.0083470910202008</v>
+        <v>3.1154306372307019</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="D177">
         <f t="shared" si="10"/>
-        <v>7.0764914815463245</v>
+        <v>3.1457229614040463</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="D178">
         <f t="shared" si="10"/>
-        <v>7.1450871627148471</v>
+        <v>3.1762158984573414</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="D179">
         <f t="shared" si="10"/>
-        <v>7.2141401518007511</v>
+        <v>3.2069121232585118</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="10"/>
-        <v>7.2836565872340042</v>
+        <v>3.2378143645326807</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="10"/>
-        <v>7.3536427318740909</v>
+        <v>3.268925406317805</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="D182">
         <f t="shared" si="10"/>
-        <v>7.4241049763959044</v>
+        <v>3.3002480894698101</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="D183">
         <f t="shared" si="10"/>
-        <v>7.4950498427916017</v>
+        <v>3.3317853132192718</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="D184">
         <f t="shared" si="10"/>
-        <v>7.5664839879932329</v>
+        <v>3.3635400367817931</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="D185">
         <f t="shared" si="10"/>
-        <v>7.6384142076211363</v>
+        <v>3.3955152810242817</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="D186">
         <f t="shared" si="10"/>
-        <v>7.710847439863417</v>
+        <v>3.4277141301894991</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="D187">
         <f t="shared" si="10"/>
-        <v>7.7837907694920077</v>
+        <v>3.4601397336813271</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="D188">
         <f t="shared" si="10"/>
-        <v>7.857251432021175</v>
+        <v>3.4927953079133558</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="D189">
         <f t="shared" si="10"/>
-        <v>7.9312368180145345</v>
+        <v>3.5256841382234851</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="D190">
         <f t="shared" si="10"/>
-        <v>8.0057544775469793</v>
+        <v>3.5588095808573934</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="D191">
         <f t="shared" si="10"/>
-        <v>8.0808121248283182</v>
+        <v>3.5921750650238886</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="D192">
         <f t="shared" si="10"/>
-        <v>8.1564176429956294</v>
+        <v>3.6257840950252627</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="D193">
         <f t="shared" si="10"/>
-        <v>8.2325790890818134</v>
+        <v>3.6596402524659686</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="D194">
         <f t="shared" si="10"/>
-        <v>8.3093046991681891</v>
+        <v>3.6937471985431096</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="D195">
         <f t="shared" si="10"/>
-        <v>8.3866028937293482</v>
+        <v>3.7281086764223961</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="D196">
         <f t="shared" si="10"/>
-        <v>8.4644822831789241</v>
+        <v>3.7627285137034163</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="D197">
         <f t="shared" si="10"/>
-        <v>8.5429516736254865</v>
+        <v>3.7976106249783088</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="D198">
         <f t="shared" si="10"/>
-        <v>8.6220200728480751</v>
+        <v>3.832759014488079</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="D199">
         <f t="shared" si="10"/>
-        <v>8.7016966965016156</v>
+        <v>3.8681777788810976</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="D200">
         <f t="shared" si="10"/>
-        <v>8.7819909745628291</v>
+        <v>3.9038711100785126</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="D201">
         <f t="shared" si="10"/>
-        <v>8.8629125580279595</v>
+        <v>3.9398432982516005</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="D202">
         <f t="shared" si="10"/>
-        <v>8.9444713258742059</v>
+        <v>3.9760987349163384</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="D203">
         <f t="shared" si="10"/>
-        <v>9.0266773922973798</v>
+        <v>4.0126419161507734</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="D204">
         <f t="shared" si="10"/>
-        <v>9.1095411142391143</v>
+        <v>4.0494774459411031</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="D205">
         <f t="shared" si="10"/>
-        <v>9.1930730992175853</v>
+        <v>4.0866100396626761</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="D206">
         <f t="shared" si="10"/>
-        <v>9.2772842134765412</v>
+        <v>4.1240445277024937</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="D207">
         <f t="shared" si="10"/>
-        <v>9.3621855904683748</v>
+        <v>4.1617858592302008</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="D208">
         <f t="shared" si="10"/>
-        <v>9.4477886396876869</v>
+        <v>4.1998391061248821</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="D209">
         <f t="shared" si="10"/>
-        <v>9.5341050558729616</v>
+        <v>4.2382094670654977</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="D210">
         <f t="shared" si="10"/>
-        <v>9.6211468285948882</v>
+        <v>4.2769022717931939</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="D211">
         <f t="shared" si="10"/>
-        <v>9.7089262522509472</v>
+        <v>4.3159229855542094</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="10"/>
-        <v>9.7974559364871698</v>
+        <v>4.3552772137326734</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="D213">
         <f t="shared" si="10"/>
-        <v>9.8867488170690851</v>
+        <v>4.3949707066830896</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="10"/>
-        <v>9.97681816722538</v>
+        <v>4.4350093647729434</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="D215">
         <f t="shared" si="10"/>
-        <v>10.067677609489081</v>
+        <v>4.4753992436464829</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="D216">
         <f t="shared" si="10"/>
-        <v>10.159341128062689</v>
+        <v>4.5161465597214088</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="D217">
         <f t="shared" si="10"/>
-        <v>10.251823081735395</v>
+        <v>4.5572576959309821</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="10"/>
-        <v>10.345138217382129</v>
+        <v>4.598739207724778</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="D219">
         <f t="shared" si="10"/>
-        <v>10.439301684076243</v>
+        <v>4.6405978293422177</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="10"/>
-        <v>10.534329047849614</v>
+        <v>4.6828404803738932</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -7541,8 +7541,8 @@
         <v>193</v>
       </c>
       <c r="D221">
-        <f t="shared" ref="D221:D284" si="11">(-LN(-((B221-0.5)/300)+1))*10.35791</f>
-        <v>10.630236307136077</v>
+        <f t="shared" ref="D221:D284" si="11">(-LN(-((B221-0.5)/300)+1))*$B$23</f>
+        <v>4.7254742726266654</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="11"/>
-        <v>10.727039908936565</v>
+        <v>4.7685065173095724</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="D223">
         <f t="shared" si="11"/>
-        <v>10.824756765746791</v>
+        <v>4.811944732558719</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="D224">
         <f t="shared" si="11"/>
-        <v>10.923404273291037</v>
+        <v>4.8557966513205013</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="D225">
         <f t="shared" si="11"/>
-        <v>11.023000329108577</v>
+        <v>4.9000702296138581</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="11"/>
-        <v>11.123563352042364</v>
+        <v>4.9447736551936048</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="D227">
         <f t="shared" si="11"/>
-        <v>11.225112302683154</v>
+        <v>4.9899153566384875</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="D228">
         <f t="shared" si="11"/>
-        <v>11.327666704825695</v>
+        <v>5.0355040128891355</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="D229">
         <f t="shared" si="11"/>
-        <v>11.431246667997808</v>
+        <v>5.0815485632629462</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="11"/>
-        <v>11.535872911127376</v>
+        <v>5.1280582179748038</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="D231">
         <f t="shared" si="11"/>
-        <v>11.641566787416858</v>
+        <v>5.1750424691945867</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="11"/>
-        <v>11.748350310500074</v>
+        <v>5.2225111026746749</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="D233">
         <f t="shared" si="11"/>
-        <v>11.856246181961406</v>
+        <v>5.2704742099831074</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -7698,7 +7698,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="11"/>
-        <v>11.965277820303458</v>
+        <v>5.3189422013806098</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="D235">
         <f t="shared" si="11"/>
-        <v>12.075469391455583</v>
+        <v>5.3679258193826049</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="D236">
         <f t="shared" si="11"/>
-        <v>12.186845840922842</v>
+        <v>5.4174361530504207</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="D237">
         <f t="shared" si="11"/>
-        <v>12.29943292768219</v>
+        <v>5.4674846530592243</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="D238">
         <f t="shared" si="11"/>
-        <v>12.413257259941266</v>
+        <v>5.5180831475939218</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="D239">
         <f t="shared" si="11"/>
-        <v>12.52834633288386</v>
+        <v>5.5692438591282079</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="D240">
         <f t="shared" si="11"/>
-        <v>12.644728568536083</v>
+        <v>5.6209794221463287</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="D241">
         <f t="shared" si="11"/>
-        <v>12.762433357897772</v>
+        <v>5.6733029018718186</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="D242">
         <f t="shared" si="11"/>
-        <v>12.881491105495385</v>
+        <v>5.7262278140726623</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="D243">
         <f t="shared" si="11"/>
-        <v>13.00193327652541</v>
+        <v>5.7797681460180224</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="D244">
         <f t="shared" si="11"/>
-        <v>13.123792446771025</v>
+        <v>5.8339383786677637</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="D245">
         <f t="shared" si="11"/>
-        <v>13.247102355490243</v>
+        <v>5.8887535101828972</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="D246">
         <f t="shared" si="11"/>
-        <v>13.37189796149031</v>
+        <v>5.9442290808524119</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="11"/>
-        <v>13.498215502621505</v>
+        <v>6.0003811995401417</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="D248">
         <f t="shared" si="11"/>
-        <v>13.626092558943656</v>
+        <v>6.0572265717642662</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="11"/>
-        <v>13.755568119840916</v>
+        <v>6.11478252953194</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="11"/>
-        <v>13.886682655384581</v>
+        <v>6.1730670630623052</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="11"/>
-        <v>14.019478192270842</v>
+        <v>6.2320988545432163</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="11"/>
-        <v>14.153998394689953</v>
+        <v>6.2918973140801242</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="11"/>
-        <v>14.290288650516199</v>
+        <v>6.3524826180102254</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="11"/>
-        <v>14.428396163244345</v>
+        <v>6.4138757497711065</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="D255">
         <f t="shared" si="11"/>
-        <v>14.568370050138535</v>
+        <v>6.4760985435310179</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="11"/>
-        <v>14.710261447104383</v>
+        <v>6.5391737308078106</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="11"/>
-        <v>14.854123620844481</v>
+        <v>6.6031249903255906</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="11"/>
-        <v>15.000012088912943</v>
+        <v>6.6679770013827335</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="D259">
         <f t="shared" si="11"/>
-        <v>15.147984748346152</v>
+        <v>6.7337555010323014</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="D260">
         <f t="shared" si="11"/>
-        <v>15.29810201361548</v>
+        <v>6.8004873454063608</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -8022,7 +8022,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="11"/>
-        <v>15.450426964724683</v>
+        <v>6.868200575549932</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="D262">
         <f t="shared" si="11"/>
-        <v>15.605025506360489</v>
+        <v>6.9369244881684304</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="D263">
         <f t="shared" si="11"/>
-        <v>15.761966539101435</v>
+        <v>7.0066897117353744</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="D264">
         <f t="shared" si="11"/>
-        <v>15.921322143798069</v>
+        <v>7.0775282884551887</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="D265">
         <f t="shared" si="11"/>
-        <v>16.083167780359567</v>
+        <v>7.149473762630099</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="D266">
         <f t="shared" si="11"/>
-        <v>16.247582502318995</v>
+        <v>7.2225612760411391</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="D267">
         <f t="shared" si="11"/>
-        <v>16.41464918870436</v>
+        <v>7.2968276710221298</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="D268">
         <f t="shared" si="11"/>
-        <v>16.584454794917935</v>
+        <v>7.3723116019834167</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="D269">
         <f t="shared" si="11"/>
-        <v>16.757090624525034</v>
+        <v>7.4490536562305332</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="D270">
         <f t="shared" si="11"/>
-        <v>16.932652624078852</v>
+        <v>7.5270964850231099</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="D271">
         <f t="shared" si="11"/>
-        <v>17.111241703364886</v>
+        <v>7.6064849459335901</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="D272">
         <f t="shared" si="11"/>
-        <v>17.292964083741136</v>
+        <v>7.6872662576953976</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="D273">
         <f t="shared" si="11"/>
-        <v>17.477931677584834</v>
+        <v>7.7694901688789431</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="D274">
         <f t="shared" si="11"/>
-        <v>17.666262502239807</v>
+        <v>7.8532091419042382</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="D275">
         <f t="shared" si="11"/>
-        <v>17.858081132298551</v>
+        <v>7.9384785540945018</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="D276">
         <f t="shared" si="11"/>
-        <v>18.053519194559762</v>
+        <v>8.0253569177003392</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="D277">
         <f t="shared" si="11"/>
-        <v>18.25271591058625</v>
+        <v>8.1139061210838062</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="D278">
         <f t="shared" si="11"/>
-        <v>18.455818692464625</v>
+        <v>8.2041916935523016</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D279">
         <f t="shared" si="11"/>
-        <v>18.662983798152304</v>
+        <v>8.296283096680936</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D280">
         <f t="shared" si="11"/>
-        <v>18.874377053709903</v>
+        <v>8.3902540453675272</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="D281">
         <f t="shared" si="11"/>
-        <v>19.090174650781719</v>
+        <v>8.4861828623377544</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="D282">
         <f t="shared" si="11"/>
-        <v>19.310564028932831</v>
+        <v>8.5841528703717387</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="D283">
         <f t="shared" si="11"/>
-        <v>19.535744853913933</v>
+        <v>8.6842528271735198</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="D284">
         <f t="shared" si="11"/>
-        <v>19.765930104647648</v>
+        <v>8.7865774085706505</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -8309,8 +8309,8 @@
         <v>257</v>
       </c>
       <c r="D285">
-        <f t="shared" ref="D285:D327" si="12">(-LN(-((B285-0.5)/300)+1))*10.35791</f>
-        <v>20.001347283766375</v>
+        <f t="shared" ref="D285:D327" si="12">(-LN(-((B285-0.5)/300)+1))*$B$23</f>
+        <v>8.8912277466363339</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="D286">
         <f t="shared" si="12"/>
-        <v>20.242239768946259</v>
+        <v>8.9983120303998554</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="D287">
         <f t="shared" si="12"/>
-        <v>20.488868325157419</v>
+        <v>9.1079461780893602</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="D288">
         <f t="shared" si="12"/>
-        <v>20.741512801386676</v>
+        <v>9.2202545913784562</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="D289">
         <f t="shared" si="12"/>
-        <v>21.000474039513183</v>
+        <v>9.3353710039414466</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="D290">
         <f t="shared" si="12"/>
-        <v>21.266076027987385</v>
+        <v>9.4534394388313459</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="D291">
         <f t="shared" si="12"/>
-        <v>21.538668338980987</v>
+        <v>9.5746152918696623</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="D292">
         <f t="shared" si="12"/>
-        <v>21.818628894994539</v>
+        <v>9.6990665614904721</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="D293">
         <f t="shared" si="12"/>
-        <v>22.106367119854866</v>
+        <v>9.8269752494578295</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="D294">
         <f t="shared" si="12"/>
-        <v>22.402327540026878</v>
+        <v>9.9585389617621125</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="D295">
         <f t="shared" si="12"/>
-        <v>22.706993915743993</v>
+        <v>10.093972745037389</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -8442,7 +8442,7 @@
       </c>
       <c r="D296">
         <f t="shared" si="12"/>
-        <v>23.020893998335161</v>
+        <v>10.233511201342843</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -8454,7 +8454,7 @@
       </c>
       <c r="D297">
         <f t="shared" si="12"/>
-        <v>23.344605031221757</v>
+        <v>10.377410933528864</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="D298">
         <f t="shared" si="12"/>
-        <v>23.678760138600492</v>
+        <v>10.52595338520748</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="D299">
         <f t="shared" si="12"/>
-        <v>24.024055779454383</v>
+        <v>10.679448154294583</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="D300">
         <f t="shared" si="12"/>
-        <v>24.381260487443711</v>
+        <v>10.838236878166279</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="D301">
         <f t="shared" si="12"/>
-        <v>24.751225172408613</v>
+        <v>11.002697813000669</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="D302">
         <f t="shared" si="12"/>
-        <v>25.13489533075921</v>
+        <v>11.173251261680193</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="D303">
         <f t="shared" si="12"/>
-        <v>25.533325605608258</v>
+        <v>11.350366046228382</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="D304">
         <f t="shared" si="12"/>
-        <v>25.947697261056835</v>
+        <v>11.534567275679274</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="D305">
         <f t="shared" si="12"/>
-        <v>26.379339299831241</v>
+        <v>11.726445733530987</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="D306">
         <f t="shared" si="12"/>
-        <v>26.829754175642989</v>
+        <v>11.926669307698189</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -8574,7 +8574,7 @@
       </c>
       <c r="D307">
         <f t="shared" si="12"/>
-        <v>27.30064935471637</v>
+        <v>12.135997020603444</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -8586,7 +8586,7 @@
       </c>
       <c r="D308">
         <f t="shared" si="12"/>
-        <v>27.793976399622657</v>
+        <v>12.355296403170383</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="D309">
         <f t="shared" si="12"/>
-        <v>28.31197983499716</v>
+        <v>12.585565217171368</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="D310">
         <f t="shared" si="12"/>
-        <v>28.857258888503143</v>
+        <v>12.827958901027202</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="D311">
         <f t="shared" si="12"/>
-        <v>29.43284640547806</v>
+        <v>13.083825649848594</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -8634,7 +8634,7 @@
       </c>
       <c r="D312">
         <f t="shared" si="12"/>
-        <v>30.042311009070595</v>
+        <v>13.354751828829187</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="D313">
         <f t="shared" si="12"/>
-        <v>30.689891239851139</v>
+        <v>13.642621602519997</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="D314">
         <f t="shared" si="12"/>
-        <v>31.380674494684676</v>
+        <v>13.949696478784588</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="D315">
         <f t="shared" si="12"/>
-        <v>32.120840012304967</v>
+        <v>14.278723323526707</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="D316">
         <f t="shared" si="12"/>
-        <v>32.917995549899302</v>
+        <v>14.633084024017924</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="D317">
         <f t="shared" si="12"/>
-        <v>33.781654750945179</v>
+        <v>15.017007693910369</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="D318">
         <f t="shared" si="12"/>
-        <v>34.723932242140044</v>
+        <v>15.435879665677115</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D319">
         <f t="shared" si="12"/>
-        <v>35.760587698362023</v>
+        <v>15.896705610314539</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="D320">
         <f t="shared" si="12"/>
-        <v>36.91265281652656</v>
+        <v>16.408834778376637</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="D321">
         <f t="shared" si="12"/>
-        <v>38.209081386561273</v>
+        <v>16.985138039846436</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="D322">
         <f t="shared" si="12"/>
-        <v>39.69130704591548</v>
+        <v>17.644033949319631</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="D323">
         <f t="shared" si="12"/>
-        <v>41.421638219988921</v>
+        <v>18.41322056097745</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="D324">
         <f t="shared" si="12"/>
-        <v>43.500167223223272</v>
+        <v>19.337192055674961</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="D325">
         <f t="shared" si="12"/>
-        <v>46.103259453058314</v>
+        <v>20.494348397825359</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="D326">
         <f t="shared" si="12"/>
-        <v>49.588408597479621</v>
+        <v>22.043606771994714</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="D327">
         <f t="shared" si="12"/>
-        <v>54.879494434141563</v>
+        <v>24.395660787823214</v>
       </c>
     </row>
   </sheetData>

--- a/data/Workstation1.xlsx
+++ b/data/Workstation1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/hamnanimramanzoor_cmail_carleton_ca/Documents/2020-2021/Winter 2021/SYSC 4005/Project/SYSC-4005-Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin Wallace\Desktop\Milestone2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{462C5B62-D12D-4476-A2C5-EBFA1BE66E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{840A89B5-FA50-4FB5-B986-F38581020B04}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15D5F67-D0AB-4A03-BFCB-42B2A94554AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WS1" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -177,6 +177,12 @@
   <si>
     <t>(Oi-Ei)^2/Ei</t>
   </si>
+  <si>
+    <t>Chi-Square</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +201,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,9 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3855,8 +3870,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8280400" y="19050"/>
-              <a:ext cx="6692900" cy="4800600"/>
+              <a:off x="8207375" y="19050"/>
+              <a:ext cx="6692900" cy="4965700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3875,7 +3890,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-CA" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -4431,17 +4446,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF1D3A3-F7AA-4627-8E32-030C402B5B0D}">
   <dimension ref="A1:J327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4473,7 +4488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4493,32 +4508,32 @@
         <v>103</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F18" si="0">1-EXP(-0.09654*C2)</f>
-        <v>1.2471774667356383E-2</v>
+        <f>1-EXP(-$E$23*C2)</f>
+        <v>2.7838913171141177E-2</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G18" si="1">1-EXP(-0.09654*D2)</f>
-        <v>0.16416653426865691</v>
+        <f>1-EXP(-$E$23*D2)</f>
+        <v>0.33197080195994555</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>0.15169475960130052</v>
+        <v>0.30413188878880437</v>
       </c>
       <c r="I2">
         <f>_xlfn.CEILING.MATH(300*H2)</f>
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="J2">
         <f>POWER(E2-I2,2)/I2</f>
-        <v>70.630434782608702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.3152173913043479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B18" si="2">E3</f>
+        <f t="shared" ref="B3:B18" si="0">E3</f>
         <v>74</v>
       </c>
       <c r="C3" s="1">
@@ -4526,39 +4541,39 @@
         <v>1.8575294117647001</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D18" si="3">C3+$B$20</f>
+        <f t="shared" ref="D3:D18" si="1">C3+$B$20</f>
         <v>3.5850588235294003</v>
       </c>
       <c r="E3">
         <v>74</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.16416653426865691</v>
+        <f t="shared" ref="F3:F18" si="2">1-EXP(-$E$23*C3)</f>
+        <v>0.33197080195994555</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>0.29255937752954586</v>
+        <f t="shared" ref="G3:G18" si="3">1-EXP(-$E$23*D3)</f>
+        <v>0.54095775331871598</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H18" si="4">G3-F3</f>
-        <v>0.12839284326088896</v>
+        <v>0.20898695135877043</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I18" si="5">_xlfn.CEILING.MATH(300*H3)</f>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J18" si="6">POWER(B2-I3,2)/I3</f>
-        <v>105.02564102564102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <f t="shared" ref="J3:J18" si="6">POWER(E3-I3,2)/I3</f>
+        <v>1.9206349206349207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C4" s="1">
@@ -4566,39 +4581,39 @@
         <v>3.5850588235294003</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.3125882352941005</v>
       </c>
       <c r="E4">
         <v>32</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.29255937752954586</v>
+        <f t="shared" si="2"/>
+        <v>0.54095775331871598</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>0.40122972477121721</v>
+        <f t="shared" si="3"/>
+        <v>0.68456500875046133</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>0.10867034724167135</v>
+        <v>0.14360725543174535</v>
       </c>
       <c r="I4">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <f t="shared" si="6"/>
-        <v>50.939393939393938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.2727272727272729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -4606,39 +4621,39 @@
         <v>5.3125882352941005</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.0401176470588007</v>
       </c>
       <c r="E5">
         <v>28</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.40122972477121721</v>
+        <f t="shared" si="2"/>
+        <v>0.68456500875046133</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0.49320715956974059</v>
+        <f t="shared" si="3"/>
+        <v>0.78324602054834513</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>9.1977434798523383E-2</v>
+        <v>9.86810117978838E-2</v>
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <f t="shared" si="6"/>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C6" s="1">
@@ -4646,39 +4661,39 @@
         <v>7.0401176470588007</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.7676470588235009</v>
       </c>
       <c r="E6">
         <v>15</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.49320715956974059</v>
+        <f t="shared" si="2"/>
+        <v>0.78324602054834513</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0.5710558894841008</v>
+        <f t="shared" si="3"/>
+        <v>0.85105556164832397</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>7.7848729914360204E-2</v>
+        <v>6.7809541099978832E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C7" s="1">
@@ -4686,39 +4701,39 @@
         <v>8.7676470588235009</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10.4951764705882</v>
       </c>
       <c r="E7">
         <v>17</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.5710558894841008</v>
+        <f t="shared" si="2"/>
+        <v>0.85105556164832397</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0.63694623272485729</v>
+        <f t="shared" si="3"/>
+        <v>0.89765149515585108</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>6.5890343240756488E-2</v>
+        <v>4.659593350752711E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C8" s="1">
@@ -4726,39 +4741,39 @@
         <v>10.4951764705882</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.2227058823529</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.63694623272485729</v>
+        <f t="shared" si="2"/>
+        <v>0.89765149515585108</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0.69271512371589505</v>
+        <f t="shared" si="3"/>
+        <v>0.92967030820513419</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>5.5768890991037767E-2</v>
+        <v>3.2018813049283112E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -4766,39 +4781,39 @@
         <v>12.2227058823529</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.950235294117599</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.69271512371589505</v>
+        <f t="shared" si="2"/>
+        <v>0.92967030820513419</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0.73991732436320423</v>
+        <f t="shared" si="3"/>
+        <v>0.95167232237058341</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>4.7202200647309178E-2</v>
+        <v>2.2002014165449224E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
-        <v>4.2666666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -4806,39 +4821,39 @@
         <v>13.950235294117599</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.677764705882298</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.73991732436320423</v>
+        <f t="shared" si="2"/>
+        <v>0.95167232237058341</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0.77986876873219646</v>
+        <f t="shared" si="3"/>
+        <v>0.96679120346687886</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>3.9951444368992228E-2</v>
+        <v>1.5118881096295445E-2</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="1">
@@ -4846,39 +4861,39 @@
         <v>15.677764705882298</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.405294117646999</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.77986876873219646</v>
+        <f t="shared" si="2"/>
+        <v>0.96679120346687886</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0.81368324952504634</v>
+        <f t="shared" si="3"/>
+        <v>0.97718027802546503</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>3.3814480792849877E-2</v>
+        <v>1.0389074558586175E-2</v>
       </c>
       <c r="I11">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
-        <v>2.2727272727272729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -4886,39 +4901,39 @@
         <v>17.405294117646999</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19.132823529411699</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.81368324952504634</v>
+        <f t="shared" si="2"/>
+        <v>0.97718027802546503</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0.84230346912785636</v>
+        <f t="shared" si="3"/>
+        <v>0.98431922365883673</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>2.8620219602810026E-2</v>
+        <v>7.1389456333716961E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
-        <v>1.7777777777777777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="1">
@@ -4926,39 +4941,39 @@
         <v>19.132823529411699</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20.860352941176398</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.84230346912785636</v>
+        <f t="shared" si="2"/>
+        <v>0.98431922365883673</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0.86652732088920825</v>
+        <f t="shared" si="3"/>
+        <v>0.98922481409125063</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>2.4223851761351889E-2</v>
+        <v>4.9055904324138977E-3</v>
       </c>
       <c r="I13">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -4966,39 +4981,39 @@
         <v>20.860352941176398</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22.587882352941097</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.86652732088920825</v>
+        <f t="shared" si="2"/>
+        <v>0.98922481409125063</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.88703013331690672</v>
+        <f t="shared" si="3"/>
+        <v>0.99259573449413174</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>2.0502812427698469E-2</v>
+        <v>3.3709204028811168E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C15" s="1">
@@ -5006,39 +5021,39 @@
         <v>22.587882352941097</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24.315411764705797</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.88703013331690672</v>
+        <f t="shared" si="2"/>
+        <v>0.99259573449413174</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0.90438349733129764</v>
+        <f t="shared" si="3"/>
+        <v>0.9949120926408449</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
-        <v>1.7353364014390915E-2</v>
+        <v>2.31635814671316E-3</v>
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="1">
@@ -5046,39 +5061,39 @@
         <v>24.315411764705797</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26.042941176470496</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.90438349733129764</v>
+        <f t="shared" si="2"/>
+        <v>0.9949120926408449</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.91907120145373944</v>
+        <f t="shared" si="3"/>
+        <v>0.99650379888797502</v>
       </c>
       <c r="H16">
         <f t="shared" si="4"/>
-        <v>1.4687704122441803E-2</v>
+        <v>1.5917062471301202E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C17" s="1">
@@ -5086,39 +5101,39 @@
         <v>26.042941176470496</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27.770470588235195</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.91907120145373944</v>
+        <f t="shared" si="2"/>
+        <v>0.99650379888797502</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.93150271918191552</v>
+        <f t="shared" si="3"/>
+        <v>0.99759755409191364</v>
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
-        <v>1.2431517728176078E-2</v>
+        <v>1.0937552039386178E-3</v>
       </c>
       <c r="I17">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="1">
@@ -5126,34 +5141,34 @@
         <v>27.770470588235195</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>29.497999999999895</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.93150271918191552</v>
+        <f t="shared" si="2"/>
+        <v>0.99759755409191364</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0.94202462456192837</v>
+        <f t="shared" si="3"/>
+        <v>0.9983491377765914</v>
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
-        <v>1.0521905380012853E-2</v>
+        <v>7.5158368467775905E-4</v>
       </c>
       <c r="I18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <f t="shared" si="6"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5161,7 +5176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -5169,7 +5184,7 @@
         <v>1.7275294117647</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -5177,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -5185,8 +5200,14 @@
         <f>MAX(A28:A327)</f>
         <v>29.375</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -5194,12 +5215,16 @@
         <f>AVERAGE(A28:A327)</f>
         <v>4.6044166666666664</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <f>1/B23</f>
         <v>0.21718277740575173</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J23" s="2">
+        <f>SUM(J2:J18)</f>
+        <v>15.325246251333208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -5208,7 +5233,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -5217,7 +5242,7 @@
         <v>300.00000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -5229,7 +5254,7 @@
         <v>-7.6676398513409313E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.9000000000000006E-2</v>
       </c>
@@ -5241,7 +5266,7 @@
         <v>7.6804299154012148E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -5253,7 +5278,7 @@
         <v>2.3079831114691036E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.11</v>
       </c>
@@ -5265,7 +5290,7 @@
         <v>3.8530908253754374E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.19700000000000001</v>
       </c>
@@ -5277,7 +5302,7 @@
         <v>5.4034009319701128E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.216</v>
       </c>
@@ -5289,7 +5314,7 @@
         <v>6.9589485826549349E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.24199999999999999</v>
       </c>
@@ -5301,7 +5326,7 @@
         <v>8.519769286305115E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.25</v>
       </c>
@@ -5313,7 +5338,7 @@
         <v>0.10085898914132711</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.255</v>
       </c>
@@ -5325,7 +5350,7 @@
         <v>0.1165737370463308</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.28199999999999997</v>
       </c>
@@ -5337,7 +5362,7 @@
         <v>0.13234230268616493</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.28799999999999998</v>
       </c>
@@ -5349,7 +5374,7 @@
         <v>0.14816505594325677</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.28899999999999998</v>
       </c>
@@ -5361,7 +5386,7 @@
         <v>0.16404237052641923</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.33</v>
       </c>
@@ -5373,7 +5398,7 @@
         <v>0.17997462402380915</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.39400000000000002</v>
       </c>
@@ -5385,7 +5410,7 @@
         <v>0.19596219795681077</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.44400000000000001</v>
       </c>
@@ -5397,7 +5422,7 @@
         <v>0.21200547783485268</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.45300000000000001</v>
       </c>
@@ -5409,7 +5434,7 @@
         <v>0.22810485321118357</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.47599999999999998</v>
       </c>
@@ -5421,7 +5446,7 @@
         <v>0.24426071773963093</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.47899999999999998</v>
       </c>
@@ -5433,7 +5458,7 @@
         <v>0.26047346923235443</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.48599999999999999</v>
       </c>
@@ -5445,7 +5470,7 @@
         <v>0.27674350971861955</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.497</v>
       </c>
@@ -5457,7 +5482,7 @@
         <v>0.29307124550461844</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.51800000000000002</v>
       </c>
@@ -5469,7 +5494,7 @@
         <v>0.30945708723434934</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.55000000000000004</v>
       </c>
@@ -5481,7 +5506,7 @@
         <v>0.32590144995158687</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.57199999999999995</v>
       </c>
@@ -5493,7 +5518,7 @@
         <v>0.34240475316295921</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.58099999999999996</v>
       </c>
@@ -5505,7 +5530,7 @@
         <v>0.35896742090216549</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.58199999999999996</v>
       </c>
@@ -5517,7 +5542,7 @@
         <v>0.37558988179534769</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.58199999999999996</v>
       </c>
@@ -5529,7 +5554,7 @@
         <v>0.39227256912764591</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.58699999999999997</v>
       </c>
@@ -5541,7 +5566,7 @@
         <v>0.40901592091096978</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.58899999999999997</v>
       </c>
@@ -5553,7 +5578,7 @@
         <v>0.42582037995300082</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.61899999999999999</v>
       </c>
@@ -5565,7 +5590,7 @@
         <v>0.44268639392745923</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.62</v>
       </c>
@@ -5577,7 +5602,7 @@
         <v>0.45961441544566656</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.63600000000000001</v>
       </c>
@@ -5589,7 +5614,7 @@
         <v>0.47660490212942452</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.64300000000000002</v>
       </c>
@@ -5601,7 +5626,7 @@
         <v>0.49365831668524301</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.68799999999999994</v>
       </c>
@@ -5613,7 +5638,7 @@
         <v>0.51077512697995275</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.71699999999999997</v>
       </c>
@@ -5625,7 +5650,7 @@
         <v>0.52795580611772408</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.72599999999999998</v>
       </c>
@@ -5637,7 +5662,7 @@
         <v>0.54520083251852736</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.73199999999999998</v>
       </c>
@@ -5649,7 +5674,7 @@
         <v>0.56251068999807408</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.76600000000000001</v>
       </c>
@@ -5661,7 +5686,7 @@
         <v>0.57988586784925966</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.78900000000000003</v>
       </c>
@@ -5673,7 +5698,7 @@
         <v>0.59732686092515364</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.78900000000000003</v>
       </c>
@@ -5685,7 +5710,7 @@
         <v>0.61483416972356231</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.80700000000000005</v>
       </c>
@@ -5697,7 +5722,7 @@
         <v>0.63240830047321228</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.83299999999999996</v>
       </c>
@@ -5709,7 +5734,7 @@
         <v>0.65004976522157909</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.84499999999999997</v>
       </c>
@@ -5721,7 +5746,7 @@
         <v>0.66775908192440758</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.84899999999999998</v>
       </c>
@@ -5733,7 +5758,7 @@
         <v>0.68553677453695827</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.85</v>
       </c>
@@ -5745,7 +5770,7 @@
         <v>0.70338337310702648</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.85</v>
       </c>
@@ -5757,7 +5782,7 @@
         <v>0.72129941386976715</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.85599999999999998</v>
       </c>
@@ -5769,7 +5794,7 @@
         <v>0.73928543934437108</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.90600000000000003</v>
       </c>
@@ -5781,7 +5806,7 @@
         <v>0.75734199843264149</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.93100000000000005</v>
       </c>
@@ -5793,7 +5818,7 @@
         <v>0.77546964651950778</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.94</v>
       </c>
@@ -5805,7 +5830,7 @@
         <v>0.79366894557552303</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.95099999999999996</v>
       </c>
@@ -5817,7 +5842,7 @@
         <v>0.81194046426140354</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.95099999999999996</v>
       </c>
@@ -5829,7 +5854,7 @@
         <v>0.83028477803464185</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.95599999999999996</v>
       </c>
@@ -5841,7 +5866,7 @@
         <v>0.8487024692582561</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.98699999999999999</v>
       </c>
@@ -5853,7 +5878,7 @@
         <v>0.8671941273117254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.999</v>
       </c>
@@ -5865,7 +5890,7 @@
         <v>0.88576034870415776</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.0009999999999999</v>
       </c>
@@ -5877,7 +5902,7 @@
         <v>0.90440173718974826</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.012</v>
       </c>
@@ -5889,7 +5914,7 @@
         <v>0.92311890388559059</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.0229999999999999</v>
       </c>
@@ -5901,7 +5926,7 @@
         <v>0.94191246739188617</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.0329999999999999</v>
       </c>
@@ -5913,7 +5938,7 @@
         <v>0.96078305391461682</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1.0349999999999999</v>
       </c>
@@ -5925,7 +5950,7 @@
         <v>0.97973129739074793</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1.038</v>
       </c>
@@ -5937,7 +5962,7 @@
         <v>0.99875783961601172</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1.056</v>
       </c>
@@ -5949,7 +5974,7 @@
         <v>1.0178633303753428</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1.075</v>
       </c>
@@ -5961,7 +5986,7 @@
         <v>1.0370484275760361</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1.0780000000000001</v>
       </c>
@@ -5973,7 +5998,7 @@
         <v>1.0563137973836845</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1.079</v>
       </c>
@@ -5985,7 +6010,7 @@
         <v>1.0756601143609756</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1.0940000000000001</v>
       </c>
@@ -5997,7 +6022,7 @@
         <v>1.0950880616094134</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.1060000000000001</v>
       </c>
@@ -6009,7 +6034,7 @@
         <v>1.1145983309140501</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1.1299999999999999</v>
       </c>
@@ -6021,7 +6046,7 @@
         <v>1.1341916228912881</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1.151</v>
       </c>
@@ -6033,7 +6058,7 @@
         <v>1.1538686471398458</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1.1930000000000001</v>
       </c>
@@ -6045,7 +6070,7 @@
         <v>1.1736301223949612</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1.212</v>
       </c>
@@ -6057,7 +6082,7 @@
         <v>1.19347677668592</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1.222</v>
       </c>
@@ -6069,7 +6094,7 @@
         <v>1.2134093474969929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1.234</v>
       </c>
@@ -6081,7 +6106,7 @@
         <v>1.2334285819318693</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1.2789999999999999</v>
       </c>
@@ -6093,7 +6118,7 @@
         <v>1.2535352368816866</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1.2989999999999999</v>
       </c>
@@ -6105,7 +6130,7 @@
         <v>1.2737300791967394</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1.32</v>
       </c>
@@ -6117,7 +6142,7 @@
         <v>1.2940138858619714</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1.335</v>
       </c>
@@ -6129,7 +6154,7 @@
         <v>1.3143874441763537</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1.341</v>
       </c>
@@ -6141,7 +6166,7 @@
         <v>1.3348515519362467</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1.351</v>
       </c>
@@ -6153,7 +6178,7 @@
         <v>1.3554070176228514</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1.3959999999999999</v>
       </c>
@@ -6165,7 +6190,7 @@
         <v>1.3760546605938717</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1.4019999999999999</v>
       </c>
@@ -6177,7 +6202,7 @@
         <v>1.3967953112794882</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1.403</v>
       </c>
@@ -6189,7 +6214,7 @@
         <v>1.4176298113827628</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1.421</v>
       </c>
@@ -6201,7 +6226,7 @@
         <v>1.4385590140846074</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1.44</v>
       </c>
@@ -6213,7 +6238,7 @@
         <v>1.4595837842534247</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1.5189999999999999</v>
       </c>
@@ -6225,7 +6250,7 @@
         <v>1.4807049986595562</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1.5349999999999999</v>
       </c>
@@ -6237,7 +6262,7 @@
         <v>1.5019235461946803</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1.54</v>
       </c>
@@ -6249,7 +6274,7 @@
         <v>1.5232403280962803</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1.5940000000000001</v>
       </c>
@@ -6261,7 +6286,7 @@
         <v>1.544656258177334</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1.621</v>
       </c>
@@ -6273,7 +6298,7 @@
         <v>1.5661722630613784</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1.6259999999999999</v>
       </c>
@@ -6285,7 +6310,7 @@
         <v>1.5877892824230782</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1.627</v>
       </c>
@@ -6297,7 +6322,7 @@
         <v>1.6095082692344778</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1.6319999999999999</v>
       </c>
@@ -6309,7 +6334,7 @@
         <v>1.6313301900170929</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1.6339999999999999</v>
       </c>
@@ -6321,7 +6346,7 @@
         <v>1.6532560250999888</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1.649</v>
       </c>
@@ -6333,7 +6358,7 @@
         <v>1.675286768884046</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1.6850000000000001</v>
       </c>
@@ -6345,7 +6370,7 @@
         <v>1.6974234301125801</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1.7010000000000001</v>
       </c>
@@ -6357,7 +6382,7 @@
         <v>1.7196670321484826</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1.73</v>
       </c>
@@ -6369,7 +6394,7 @@
         <v>1.7420186132581066</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1.738</v>
       </c>
@@ -6381,7 +6406,7 @@
         <v>1.7644792269020675</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1.746</v>
       </c>
@@ -6393,7 +6418,7 @@
         <v>1.7870499420331694</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1.772</v>
       </c>
@@ -6405,7 +6430,7 @@
         <v>1.8097318434016769</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1.7749999999999999</v>
       </c>
@@ -6417,7 +6442,7 @@
         <v>1.8325260318681384</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1.8069999999999999</v>
       </c>
@@ -6429,7 +6454,7 @@
         <v>1.8554336247239891</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1.823</v>
       </c>
@@ -6441,7 +6466,7 @@
         <v>1.8784557560201756</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.8440000000000001</v>
       </c>
@@ -6453,7 +6478,7 @@
         <v>1.9015935769040337</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1.8759999999999999</v>
       </c>
@@ -6465,7 +6490,7 @@
         <v>1.9248482559646707</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1.8759999999999999</v>
       </c>
@@ -6477,7 +6502,7 @@
         <v>1.9482209795871199</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1.885</v>
       </c>
@@ -6489,7 +6514,7 @@
         <v>1.971712952315527</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1.893</v>
       </c>
@@ -6501,7 +6526,7 @@
         <v>1.9953253972256435</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1.9339999999999999</v>
       </c>
@@ -6513,7 +6538,7 @@
         <v>2.0190595563069333</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1.9610000000000001</v>
       </c>
@@ -6525,7 +6550,7 @@
         <v>2.0429166908545664</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1.972</v>
       </c>
@@ -6537,7 +6562,7 @@
         <v>2.0668980818716252</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1.976</v>
       </c>
@@ -6549,7 +6574,7 @@
         <v>2.0910050304818437</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1.9910000000000001</v>
       </c>
@@ -6561,7 +6586,7 @@
         <v>2.1152388583532029</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2.012</v>
       </c>
@@ -6573,7 +6598,7 @@
         <v>2.1396009081327323</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2.0169999999999999</v>
       </c>
@@ -6585,7 +6610,7 @@
         <v>2.1640925438928855</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2.0430000000000001</v>
       </c>
@@ -6597,7 +6622,7 @@
         <v>2.1887151515898333</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2.1259999999999999</v>
       </c>
@@ -6609,7 +6634,7 @@
         <v>2.2134701395340928</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2.1339999999999999</v>
       </c>
@@ -6621,7 +6646,7 @@
         <v>2.2383589388738736</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2.1669999999999998</v>
       </c>
@@ -6633,7 +6658,7 @@
         <v>2.2633830040915468</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2.1739999999999999</v>
       </c>
@@ -6645,7 +6670,7 @@
         <v>2.2885438135136935</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2.1739999999999999</v>
       </c>
@@ -6657,7 +6682,7 @@
         <v>2.3138428698351614</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2.1880000000000002</v>
       </c>
@@ -6669,7 +6694,7 @@
         <v>2.3392817006575886</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2.23</v>
       </c>
@@ -6681,7 +6706,7 @@
         <v>2.3648618590429047</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2.2719999999999998</v>
       </c>
@@ -6693,7 +6718,7 @@
         <v>2.3905849240822783</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2.2909999999999999</v>
       </c>
@@ -6705,7 +6730,7 @@
         <v>2.4164525014810487</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2.302</v>
       </c>
@@ -6717,7 +6742,7 @@
         <v>2.4424662241601904</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2.306</v>
       </c>
@@ -6729,7 +6754,7 @@
         <v>2.4686277528748546</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2.306</v>
       </c>
@@ -6741,7 +6766,7 @@
         <v>2.4949387768505855</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2.37</v>
       </c>
@@ -6753,7 +6778,7 @@
         <v>2.5214010144378265</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2.3780000000000001</v>
       </c>
@@ -6765,7 +6790,7 @@
         <v>2.5480162137853348</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2.4910000000000001</v>
       </c>
@@ -6777,7 +6802,7 @@
         <v>2.5747861535331715</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2.4950000000000001</v>
       </c>
@@ -6789,7 +6814,7 @@
         <v>2.6017126435259645</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2.528</v>
       </c>
@@ -6801,7 +6826,7 @@
         <v>2.6287975255471432</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2.528</v>
       </c>
@@ -6813,7 +6838,7 @@
         <v>2.6560426740748908</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2.5569999999999999</v>
       </c>
@@ -6825,7 +6850,7 @@
         <v>2.6834499970606109</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2.5830000000000002</v>
       </c>
@@ -6837,7 +6862,7 @@
         <v>2.7110214367306895</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2.589</v>
       </c>
@@ -6849,7 +6874,7 @@
         <v>2.7387589704124058</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2.621</v>
       </c>
@@ -6861,7 +6886,7 @@
         <v>2.7666646113848863</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2.7040000000000002</v>
       </c>
@@ -6873,7 +6898,7 @@
         <v>2.7947404097559829</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2.75</v>
       </c>
@@ -6885,7 +6910,7 @@
         <v>2.8229884533660621</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2.7519999999999998</v>
       </c>
@@ -6897,7 +6922,7 @@
         <v>2.8514108687196913</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2.8010000000000002</v>
       </c>
@@ -6909,7 +6934,7 @@
         <v>2.8800098219462478</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2.8069999999999999</v>
       </c>
@@ -6921,7 +6946,7 @@
         <v>2.9087875197905593</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2.8410000000000002</v>
       </c>
@@ -6933,7 +6958,7 @@
         <v>2.9377462106346957</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2.8780000000000001</v>
       </c>
@@ -6945,7 +6970,7 @@
         <v>2.9668881855520857</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2.8969999999999998</v>
       </c>
@@ -6957,7 +6982,7 @@
         <v>2.9962157793952202</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2.907</v>
       </c>
@@ -6969,7 +6994,7 @@
         <v>3.0257313719182095</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2.9079999999999999</v>
       </c>
@@ -6981,7 +7006,7 @@
         <v>3.0554373889355504</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2.9470000000000001</v>
       </c>
@@ -6993,7 +7018,7 @@
         <v>3.0853363035185271</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3.0129999999999999</v>
       </c>
@@ -7005,7 +7030,7 @@
         <v>3.1154306372307019</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3.016</v>
       </c>
@@ -7017,7 +7042,7 @@
         <v>3.1457229614040463</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3.044</v>
       </c>
@@ -7029,7 +7054,7 @@
         <v>3.1762158984573414</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3.0489999999999999</v>
       </c>
@@ -7041,7 +7066,7 @@
         <v>3.2069121232585118</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3.0529999999999999</v>
       </c>
@@ -7053,7 +7078,7 @@
         <v>3.2378143645326807</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3.0720000000000001</v>
       </c>
@@ -7065,7 +7090,7 @@
         <v>3.268925406317805</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3.1709999999999998</v>
       </c>
@@ -7077,7 +7102,7 @@
         <v>3.3002480894698101</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3.2040000000000002</v>
       </c>
@@ -7089,7 +7114,7 @@
         <v>3.3317853132192718</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3.214</v>
       </c>
@@ -7101,7 +7126,7 @@
         <v>3.3635400367817931</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3.226</v>
       </c>
@@ -7113,7 +7138,7 @@
         <v>3.3955152810242817</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3.2309999999999999</v>
       </c>
@@ -7125,7 +7150,7 @@
         <v>3.4277141301894991</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3.2370000000000001</v>
       </c>
@@ -7137,7 +7162,7 @@
         <v>3.4601397336813271</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3.2589999999999999</v>
       </c>
@@ -7149,7 +7174,7 @@
         <v>3.4927953079133558</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3.2690000000000001</v>
       </c>
@@ -7161,7 +7186,7 @@
         <v>3.5256841382234851</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3.2890000000000001</v>
       </c>
@@ -7173,7 +7198,7 @@
         <v>3.5588095808573934</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3.319</v>
       </c>
@@ -7185,7 +7210,7 @@
         <v>3.5921750650238886</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3.3420000000000001</v>
       </c>
@@ -7197,7 +7222,7 @@
         <v>3.6257840950252627</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3.363</v>
       </c>
@@ -7209,7 +7234,7 @@
         <v>3.6596402524659686</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3.3759999999999999</v>
       </c>
@@ -7221,7 +7246,7 @@
         <v>3.6937471985431096</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3.3849999999999998</v>
       </c>
@@ -7233,7 +7258,7 @@
         <v>3.7281086764223961</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3.3879999999999999</v>
       </c>
@@ -7245,7 +7270,7 @@
         <v>3.7627285137034163</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3.4169999999999998</v>
       </c>
@@ -7257,7 +7282,7 @@
         <v>3.7976106249783088</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3.419</v>
       </c>
@@ -7269,7 +7294,7 @@
         <v>3.832759014488079</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3.4249999999999998</v>
       </c>
@@ -7281,7 +7306,7 @@
         <v>3.8681777788810976</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3.5139999999999998</v>
       </c>
@@ -7293,7 +7318,7 @@
         <v>3.9038711100785126</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3.5169999999999999</v>
       </c>
@@ -7305,7 +7330,7 @@
         <v>3.9398432982516005</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3.5529999999999999</v>
       </c>
@@ -7317,7 +7342,7 @@
         <v>3.9760987349163384</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3.5569999999999999</v>
       </c>
@@ -7329,7 +7354,7 @@
         <v>4.0126419161507734</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3.56</v>
       </c>
@@ -7341,7 +7366,7 @@
         <v>4.0494774459411031</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3.65</v>
       </c>
@@ -7353,7 +7378,7 @@
         <v>4.0866100396626761</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3.6880000000000002</v>
       </c>
@@ -7365,7 +7390,7 @@
         <v>4.1240445277024937</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3.6920000000000002</v>
       </c>
@@ -7377,7 +7402,7 @@
         <v>4.1617858592302008</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3.8559999999999999</v>
       </c>
@@ -7389,7 +7414,7 @@
         <v>4.1998391061248821</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3.9239999999999999</v>
       </c>
@@ -7401,7 +7426,7 @@
         <v>4.2382094670654977</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3.9470000000000001</v>
       </c>
@@ -7413,7 +7438,7 @@
         <v>4.2769022717931939</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4.0590000000000002</v>
       </c>
@@ -7425,7 +7450,7 @@
         <v>4.3159229855542094</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4.101</v>
       </c>
@@ -7437,7 +7462,7 @@
         <v>4.3552772137326734</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4.1020000000000003</v>
       </c>
@@ -7449,7 +7474,7 @@
         <v>4.3949707066830896</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4.1189999999999998</v>
       </c>
@@ -7461,7 +7486,7 @@
         <v>4.4350093647729434</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4.1849999999999996</v>
       </c>
@@ -7473,7 +7498,7 @@
         <v>4.4753992436464829</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4.1970000000000001</v>
       </c>
@@ -7485,7 +7510,7 @@
         <v>4.5161465597214088</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4.2389999999999999</v>
       </c>
@@ -7497,7 +7522,7 @@
         <v>4.5572576959309821</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4.2930000000000001</v>
       </c>
@@ -7509,7 +7534,7 @@
         <v>4.598739207724778</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4.3730000000000002</v>
       </c>
@@ -7521,7 +7546,7 @@
         <v>4.6405978293422177</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4.3780000000000001</v>
       </c>
@@ -7533,7 +7558,7 @@
         <v>4.6828404803738932</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4.3840000000000003</v>
       </c>
@@ -7545,7 +7570,7 @@
         <v>4.7254742726266654</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4.4029999999999996</v>
       </c>
@@ -7557,7 +7582,7 @@
         <v>4.7685065173095724</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4.4619999999999997</v>
       </c>
@@ -7569,7 +7594,7 @@
         <v>4.811944732558719</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4.4850000000000003</v>
       </c>
@@ -7581,7 +7606,7 @@
         <v>4.8557966513205013</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4.5819999999999999</v>
       </c>
@@ -7593,7 +7618,7 @@
         <v>4.9000702296138581</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4.6100000000000003</v>
       </c>
@@ -7605,7 +7630,7 @@
         <v>4.9447736551936048</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4.6159999999999997</v>
       </c>
@@ -7617,7 +7642,7 @@
         <v>4.9899153566384875</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4.6639999999999997</v>
       </c>
@@ -7629,7 +7654,7 @@
         <v>5.0355040128891355</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4.8079999999999998</v>
       </c>
@@ -7641,7 +7666,7 @@
         <v>5.0815485632629462</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4.8449999999999998</v>
       </c>
@@ -7653,7 +7678,7 @@
         <v>5.1280582179748038</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5.0919999999999996</v>
       </c>
@@ -7665,7 +7690,7 @@
         <v>5.1750424691945867</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5.125</v>
       </c>
@@ -7677,7 +7702,7 @@
         <v>5.2225111026746749</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>5.1840000000000002</v>
       </c>
@@ -7689,7 +7714,7 @@
         <v>5.2704742099831074</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5.2060000000000004</v>
       </c>
@@ -7701,7 +7726,7 @@
         <v>5.3189422013806098</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5.23</v>
       </c>
@@ -7713,7 +7738,7 @@
         <v>5.3679258193826049</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5.2590000000000003</v>
       </c>
@@ -7725,7 +7750,7 @@
         <v>5.4174361530504207</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>5.36</v>
       </c>
@@ -7737,7 +7762,7 @@
         <v>5.4674846530592243</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5.3680000000000003</v>
       </c>
@@ -7749,7 +7774,7 @@
         <v>5.5180831475939218</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>5.37</v>
       </c>
@@ -7761,7 +7786,7 @@
         <v>5.5692438591282079</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5.5339999999999998</v>
       </c>
@@ -7773,7 +7798,7 @@
         <v>5.6209794221463287</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>5.569</v>
       </c>
@@ -7785,7 +7810,7 @@
         <v>5.6733029018718186</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5.6040000000000001</v>
       </c>
@@ -7797,7 +7822,7 @@
         <v>5.7262278140726623</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>5.665</v>
       </c>
@@ -7809,7 +7834,7 @@
         <v>5.7797681460180224</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>5.8109999999999999</v>
       </c>
@@ -7821,7 +7846,7 @@
         <v>5.8339383786677637</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>5.891</v>
       </c>
@@ -7833,7 +7858,7 @@
         <v>5.8887535101828972</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>6.0670000000000002</v>
       </c>
@@ -7845,7 +7870,7 @@
         <v>5.9442290808524119</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>6.069</v>
       </c>
@@ -7857,7 +7882,7 @@
         <v>6.0003811995401417</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>6.1070000000000002</v>
       </c>
@@ -7869,7 +7894,7 @@
         <v>6.0572265717642662</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>6.2030000000000003</v>
       </c>
@@ -7881,7 +7906,7 @@
         <v>6.11478252953194</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>6.3769999999999998</v>
       </c>
@@ -7893,7 +7918,7 @@
         <v>6.1730670630623052</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>6.415</v>
       </c>
@@ -7905,7 +7930,7 @@
         <v>6.2320988545432163</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>6.5460000000000003</v>
       </c>
@@ -7917,7 +7942,7 @@
         <v>6.2918973140801242</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>6.62</v>
       </c>
@@ -7929,7 +7954,7 @@
         <v>6.3524826180102254</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>6.66</v>
       </c>
@@ -7941,7 +7966,7 @@
         <v>6.4138757497711065</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>6.7190000000000003</v>
       </c>
@@ -7953,7 +7978,7 @@
         <v>6.4760985435310179</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>6.7380000000000004</v>
       </c>
@@ -7965,7 +7990,7 @@
         <v>6.5391737308078106</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>6.766</v>
       </c>
@@ -7977,7 +8002,7 @@
         <v>6.6031249903255906</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>6.78</v>
       </c>
@@ -7989,7 +8014,7 @@
         <v>6.6679770013827335</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>6.806</v>
       </c>
@@ -8001,7 +8026,7 @@
         <v>6.7337555010323014</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>6.8319999999999999</v>
       </c>
@@ -8013,7 +8038,7 @@
         <v>6.8004873454063608</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>6.8369999999999997</v>
       </c>
@@ -8025,7 +8050,7 @@
         <v>6.868200575549932</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6.8609999999999998</v>
       </c>
@@ -8037,7 +8062,7 @@
         <v>6.9369244881684304</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>6.8940000000000001</v>
       </c>
@@ -8049,7 +8074,7 @@
         <v>7.0066897117353744</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>7.0019999999999998</v>
       </c>
@@ -8061,7 +8086,7 @@
         <v>7.0775282884551887</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>7.085</v>
       </c>
@@ -8073,7 +8098,7 @@
         <v>7.149473762630099</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>7.1040000000000001</v>
       </c>
@@ -8085,7 +8110,7 @@
         <v>7.2225612760411391</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>7.1479999999999997</v>
       </c>
@@ -8097,7 +8122,7 @@
         <v>7.2968276710221298</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>7.1539999999999999</v>
       </c>
@@ -8109,7 +8134,7 @@
         <v>7.3723116019834167</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>7.33</v>
       </c>
@@ -8121,7 +8146,7 @@
         <v>7.4490536562305332</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>7.3330000000000002</v>
       </c>
@@ -8133,7 +8158,7 @@
         <v>7.5270964850231099</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>7.4690000000000003</v>
       </c>
@@ -8145,7 +8170,7 @@
         <v>7.6064849459335901</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>7.6870000000000003</v>
       </c>
@@ -8157,7 +8182,7 @@
         <v>7.6872662576953976</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>7.72</v>
       </c>
@@ -8169,7 +8194,7 @@
         <v>7.7694901688789431</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>7.875</v>
       </c>
@@ -8181,7 +8206,7 @@
         <v>7.8532091419042382</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>8.2270000000000003</v>
       </c>
@@ -8193,7 +8218,7 @@
         <v>7.9384785540945018</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>8.4359999999999999</v>
       </c>
@@ -8205,7 +8230,7 @@
         <v>8.0253569177003392</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>8.5239999999999991</v>
       </c>
@@ -8217,7 +8242,7 @@
         <v>8.1139061210838062</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>8.5630000000000006</v>
       </c>
@@ -8229,7 +8254,7 @@
         <v>8.2041916935523016</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8.5990000000000002</v>
       </c>
@@ -8241,7 +8266,7 @@
         <v>8.296283096680936</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>8.8030000000000008</v>
       </c>
@@ -8253,7 +8278,7 @@
         <v>8.3902540453675272</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>8.8279999999999994</v>
       </c>
@@ -8265,7 +8290,7 @@
         <v>8.4861828623377544</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>8.8729999999999993</v>
       </c>
@@ -8277,7 +8302,7 @@
         <v>8.5841528703717387</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>8.8879999999999999</v>
       </c>
@@ -8289,7 +8314,7 @@
         <v>8.6842528271735198</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>8.8940000000000001</v>
       </c>
@@ -8301,7 +8326,7 @@
         <v>8.7865774085706505</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>9.2260000000000009</v>
       </c>
@@ -8313,7 +8338,7 @@
         <v>8.8912277466363339</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>9.2609999999999992</v>
       </c>
@@ -8325,7 +8350,7 @@
         <v>8.9983120303998554</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>9.4079999999999995</v>
       </c>
@@ -8337,7 +8362,7 @@
         <v>9.1079461780893602</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>9.4849999999999994</v>
       </c>
@@ -8349,7 +8374,7 @@
         <v>9.2202545913784562</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>9.7629999999999999</v>
       </c>
@@ -8361,7 +8386,7 @@
         <v>9.3353710039414466</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>9.7710000000000008</v>
       </c>
@@ -8373,7 +8398,7 @@
         <v>9.4534394388313459</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>9.86</v>
       </c>
@@ -8385,7 +8410,7 @@
         <v>9.5746152918696623</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>9.8819999999999997</v>
       </c>
@@ -8397,7 +8422,7 @@
         <v>9.6990665614904721</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>9.9269999999999996</v>
       </c>
@@ -8409,7 +8434,7 @@
         <v>9.8269752494578295</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>10.089</v>
       </c>
@@ -8421,7 +8446,7 @@
         <v>9.9585389617621125</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>10.273</v>
       </c>
@@ -8433,7 +8458,7 @@
         <v>10.093972745037389</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>10.388999999999999</v>
       </c>
@@ -8445,7 +8470,7 @@
         <v>10.233511201342843</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>10.744</v>
       </c>
@@ -8457,7 +8482,7 @@
         <v>10.377410933528864</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>10.824999999999999</v>
       </c>
@@ -8469,7 +8494,7 @@
         <v>10.52595338520748</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>10.837999999999999</v>
       </c>
@@ -8481,7 +8506,7 @@
         <v>10.679448154294583</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>10.919</v>
       </c>
@@ -8493,7 +8518,7 @@
         <v>10.838236878166279</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>10.956</v>
       </c>
@@ -8505,7 +8530,7 @@
         <v>11.002697813000669</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>10.994999999999999</v>
       </c>
@@ -8517,7 +8542,7 @@
         <v>11.173251261680193</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>11.125</v>
       </c>
@@ -8529,7 +8554,7 @@
         <v>11.350366046228382</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>12.246</v>
       </c>
@@ -8541,7 +8566,7 @@
         <v>11.534567275679274</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>12.599</v>
       </c>
@@ -8553,7 +8578,7 @@
         <v>11.726445733530987</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>12.69</v>
       </c>
@@ -8565,7 +8590,7 @@
         <v>11.926669307698189</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>12.888999999999999</v>
       </c>
@@ -8577,7 +8602,7 @@
         <v>12.135997020603444</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>13.089</v>
       </c>
@@ -8589,7 +8614,7 @@
         <v>12.355296403170383</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>13.661</v>
       </c>
@@ -8601,7 +8626,7 @@
         <v>12.585565217171368</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14.138</v>
       </c>
@@ -8613,7 +8638,7 @@
         <v>12.827958901027202</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>14.343999999999999</v>
       </c>
@@ -8625,7 +8650,7 @@
         <v>13.083825649848594</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>14.579000000000001</v>
       </c>
@@ -8637,7 +8662,7 @@
         <v>13.354751828829187</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>15.016999999999999</v>
       </c>
@@ -8649,7 +8674,7 @@
         <v>13.642621602519997</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>15.196</v>
       </c>
@@ -8661,7 +8686,7 @@
         <v>13.949696478784588</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>15.429</v>
       </c>
@@ -8673,7 +8698,7 @@
         <v>14.278723323526707</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>16.167999999999999</v>
       </c>
@@ -8685,7 +8710,7 @@
         <v>14.633084024017924</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>16.311</v>
       </c>
@@ -8697,7 +8722,7 @@
         <v>15.017007693910369</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>16.521999999999998</v>
       </c>
@@ -8709,7 +8734,7 @@
         <v>15.435879665677115</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>16.603000000000002</v>
       </c>
@@ -8721,7 +8746,7 @@
         <v>15.896705610314539</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>17.321999999999999</v>
       </c>
@@ -8733,7 +8758,7 @@
         <v>16.408834778376637</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>17.516999999999999</v>
       </c>
@@ -8745,7 +8770,7 @@
         <v>16.985138039846436</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>17.956</v>
       </c>
@@ -8757,7 +8782,7 @@
         <v>17.644033949319631</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>21.555</v>
       </c>
@@ -8769,7 +8794,7 @@
         <v>18.41322056097745</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>23.085000000000001</v>
       </c>
@@ -8781,7 +8806,7 @@
         <v>19.337192055674961</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>23.28</v>
       </c>
@@ -8793,7 +8818,7 @@
         <v>20.494348397825359</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>26.34</v>
       </c>
@@ -8805,7 +8830,7 @@
         <v>22.043606771994714</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>29.375</v>
       </c>
